--- a/Planilhas/LISTA DE RG CPF CLIENTES.xlsx
+++ b/Planilhas/LISTA DE RG CPF CLIENTES.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eliander\PycharmProjects\Efraim_Painel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eliander\Desktop\Efraim_Painel\Planilhas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEE67B92-1B76-4707-8170-B0FF4E3CCC17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75C9484E-36D3-431B-97FB-2925F5DFCF86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3960" yWindow="1116" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="355">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="112">
   <si>
     <t>NOME:</t>
   </si>
@@ -53,147 +53,69 @@
     <t>CPF</t>
   </si>
   <si>
-    <t>446.025.372-00</t>
-  </si>
-  <si>
     <t>LEOPOLDO BOTELHO</t>
   </si>
   <si>
-    <t>160.494.702-00</t>
-  </si>
-  <si>
     <t>LISSANDRA COSTA</t>
   </si>
   <si>
-    <t>000.063.049-74</t>
-  </si>
-  <si>
-    <t>633.291.402-59</t>
-  </si>
-  <si>
     <t>MARCOS MARTINELLI</t>
   </si>
   <si>
-    <t>234.225.050.91</t>
-  </si>
-  <si>
     <t>ANDRESSA RAMOS</t>
   </si>
   <si>
-    <t>966.781.430-00</t>
-  </si>
-  <si>
     <t>SANDRO GARCIA ROSA</t>
   </si>
   <si>
-    <t>529.135.200-06</t>
-  </si>
-  <si>
     <t xml:space="preserve">LAÍS MARTINS </t>
   </si>
   <si>
-    <t>701.041.952-31</t>
-  </si>
-  <si>
     <t>MARIA CLARA RAMOS</t>
   </si>
   <si>
-    <t>022.788.152-45</t>
-  </si>
-  <si>
     <t>CINTIA LEÃO BRUM</t>
   </si>
   <si>
-    <t>25/010/1982</t>
-  </si>
-  <si>
     <t>THIAGO GARCIA BRUM</t>
   </si>
   <si>
-    <t>022.788.372-14</t>
-  </si>
-  <si>
-    <t>ANDREZZA MENEZES DE SOUZA</t>
-  </si>
-  <si>
     <t>GIOVANNA FARIAS SANTOS</t>
   </si>
   <si>
-    <t>034.915.542-92</t>
-  </si>
-  <si>
     <t>MIKAELLA GOES BOTELHO</t>
   </si>
   <si>
-    <t>004.185.632-50</t>
-  </si>
-  <si>
     <t>JULINILCE GUIMARAES</t>
   </si>
   <si>
-    <t>018.949.952-44</t>
-  </si>
-  <si>
     <t>GIOVANNA BRITO LIMA</t>
   </si>
   <si>
-    <t>701.854.102-60</t>
-  </si>
-  <si>
     <t>JEFFERSON AGUIAR</t>
   </si>
   <si>
-    <t>939.111.572-15</t>
-  </si>
-  <si>
     <t>MARIA FERNANDA RAMOS</t>
   </si>
   <si>
-    <t>022.788.412-46</t>
-  </si>
-  <si>
     <t>ELLEN CRISTINA IZIDORIO</t>
   </si>
   <si>
-    <t>529.054.972-20</t>
-  </si>
-  <si>
-    <t>320.638.142-87</t>
-  </si>
-  <si>
-    <t>PAULA BOTELHO DAMASCENO GARCIA DA ROSA</t>
-  </si>
-  <si>
-    <t>024.159.329-81</t>
-  </si>
-  <si>
     <t>KARLA KHALIL MARTINELLI</t>
   </si>
   <si>
-    <t>672.187.090-87</t>
-  </si>
-  <si>
     <t>AMANDA FABA</t>
   </si>
   <si>
-    <t>022.788.272-51</t>
-  </si>
-  <si>
     <t>ANA LEÃO BRUM</t>
   </si>
   <si>
-    <t>BB</t>
-  </si>
-  <si>
     <t>MARIA CLARA BOTELHO GARCIA</t>
   </si>
   <si>
     <t>MICHEL BOTELHO</t>
   </si>
   <si>
-    <t>004.300.402-45</t>
-  </si>
-  <si>
     <t>JULIO CESAR MAGALHÃES</t>
   </si>
   <si>
@@ -218,45 +140,18 @@
     <t xml:space="preserve">JORGE VIANA CASTRO </t>
   </si>
   <si>
-    <t>267.751.154.15</t>
-  </si>
-  <si>
     <t>ARLAN SOUZA</t>
   </si>
   <si>
-    <t>761.355.032-68</t>
-  </si>
-  <si>
     <t>TIAGO  LIMA (DR7)</t>
   </si>
   <si>
-    <t>001.602.010.-39</t>
-  </si>
-  <si>
     <t>ARTHUR DA COSTA PONTES</t>
   </si>
   <si>
-    <t>003.391.512-18</t>
-  </si>
-  <si>
-    <t>FREDERICO MATHEUS BALIEIRO RAMOS</t>
-  </si>
-  <si>
-    <t>MARIA EDUARDA BALIEIRO RAMOS</t>
-  </si>
-  <si>
     <t>ILKA REGINA DO NASCIMENTO</t>
   </si>
   <si>
-    <t>106.219.374-10</t>
-  </si>
-  <si>
-    <t>MARCIO ROBERTO ALVES DE SANTANA</t>
-  </si>
-  <si>
-    <t>028.553.674-50</t>
-  </si>
-  <si>
     <t>DUDA BRITO RAMOS</t>
   </si>
   <si>
@@ -266,465 +161,87 @@
     <t>SAM ALMEIDA DA SILVA</t>
   </si>
   <si>
-    <t>706.374.422-45</t>
-  </si>
-  <si>
-    <t>KELLY IZAT MUHAMAD TUMMALEH</t>
-  </si>
-  <si>
-    <t>PASSAPORTE YB379260</t>
-  </si>
-  <si>
-    <t>SARA JADALLAH ADEL RAHMAN TUMMALLEH</t>
-  </si>
-  <si>
-    <t>PASSAPORTE YB801462</t>
-  </si>
-  <si>
     <t>LUCIANE DE SOUZA LEAL</t>
   </si>
   <si>
-    <t>956.419.712-00</t>
-  </si>
-  <si>
     <t>DARCIVAL LUIZ DE ALMEIDA</t>
   </si>
   <si>
-    <t>214.977.292-20</t>
-  </si>
-  <si>
-    <t>HORACIO JOAQUIM SILVA  MARTINS</t>
-  </si>
-  <si>
-    <t>CLAUDIO CESAR RISUENHO CABRAL</t>
-  </si>
-  <si>
-    <t>404.950.602-59</t>
-  </si>
-  <si>
     <t>ROBBY BRINDEIROS PEREIRA</t>
   </si>
   <si>
-    <t>852.822.432-53</t>
-  </si>
-  <si>
-    <t>LAIS CASTRO BRINDEIROS PEREIRA</t>
-  </si>
-  <si>
-    <t>938.914.822-72</t>
-  </si>
-  <si>
-    <t>VINICIUS CASTRO BRINDEIROS PEREIRA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CRIANÇA </t>
-  </si>
-  <si>
-    <t>MATEUS CASTRO BRINDEIROS PEREIRA</t>
-  </si>
-  <si>
-    <t>EDUARDA CASTRO BRINDEIROS PEREIRA</t>
-  </si>
-  <si>
-    <t>JOELMA SOUZA CARDOSO DE SOUZA</t>
-  </si>
-  <si>
-    <t>093.729.917-08</t>
-  </si>
-  <si>
     <t>DANIELLE PAIVA SOUZA PESSOA</t>
   </si>
   <si>
-    <t>573.472.772-20</t>
-  </si>
-  <si>
     <t>ANTONIO LEOCADIO DA SILVA</t>
   </si>
   <si>
-    <t>768.173.186-53</t>
-  </si>
-  <si>
     <t>EDIVALDO LOPES DE LIMA</t>
   </si>
   <si>
-    <t>216.572.462-72</t>
-  </si>
-  <si>
     <t>MARIA JOSE COSTA LIMA</t>
   </si>
   <si>
-    <t>310.731.232-00</t>
-  </si>
-  <si>
     <t>ISRAEL LEVY COSTA LIMA</t>
   </si>
   <si>
-    <t>026.872.002-98</t>
-  </si>
-  <si>
     <t>RAPHAEL ASAFE COSTA LIMA</t>
   </si>
   <si>
-    <t>025.803.502-17</t>
-  </si>
-  <si>
-    <t>28.01.27-98</t>
-  </si>
-  <si>
-    <t>31.98.35-88</t>
-  </si>
-  <si>
-    <t>27.58.38-05</t>
-  </si>
-  <si>
-    <t>200.400.208.821-9</t>
-  </si>
-  <si>
-    <t>35.80.39-91</t>
-  </si>
-  <si>
-    <t>18.00.79-70</t>
-  </si>
-  <si>
-    <t>24.90.94-40</t>
-  </si>
-  <si>
-    <t>23.15.33-93</t>
-  </si>
-  <si>
-    <t>10.80.03.04-46</t>
-  </si>
-  <si>
-    <t>91.38.70-6</t>
-  </si>
-  <si>
-    <t>13.28.81-05</t>
-  </si>
-  <si>
-    <t>26.43.60.64-3</t>
-  </si>
-  <si>
-    <t>05.33.57-79</t>
-  </si>
-  <si>
-    <t>11.24.08-65 SP</t>
-  </si>
-  <si>
-    <t>19.22.35-44</t>
-  </si>
-  <si>
-    <t>30.67.59-52</t>
-  </si>
-  <si>
-    <t>31.45.71-34</t>
-  </si>
-  <si>
-    <t>30.03.640</t>
-  </si>
-  <si>
-    <t>10.56.71-78</t>
-  </si>
-  <si>
-    <t>71.76.69-7</t>
-  </si>
-  <si>
-    <t>31.05.16-85</t>
-  </si>
-  <si>
-    <t>23.74.35.98-6</t>
-  </si>
-  <si>
-    <t>29.85.24-55</t>
-  </si>
-  <si>
-    <t>19.28.95-4</t>
-  </si>
-  <si>
-    <t>25.65.90-06</t>
-  </si>
-  <si>
-    <t>20.48.04-04</t>
-  </si>
-  <si>
-    <t>30.99.06-96</t>
-  </si>
-  <si>
-    <t>05.85.32-06</t>
-  </si>
-  <si>
-    <t>13.00.10-60</t>
-  </si>
-  <si>
-    <t>22.48.72-55</t>
-  </si>
-  <si>
-    <t>55.23.83-3</t>
-  </si>
-  <si>
-    <t>10.09.75.52-55</t>
-  </si>
-  <si>
-    <t>35.07.54-73</t>
-  </si>
-  <si>
-    <t>64.33.97.75-9</t>
-  </si>
-  <si>
-    <t>35.07.55-89</t>
-  </si>
-  <si>
-    <t>12.30.10-19</t>
-  </si>
-  <si>
-    <t>24.29.27-02</t>
-  </si>
-  <si>
-    <t>72.16.97-1</t>
-  </si>
-  <si>
-    <t>24.27.24-77</t>
-  </si>
-  <si>
-    <t>68.36.98-43</t>
-  </si>
-  <si>
-    <t>17.30.95-22</t>
-  </si>
-  <si>
-    <t>10.50.84.00-71</t>
-  </si>
-  <si>
-    <t>40.32.51-4</t>
-  </si>
-  <si>
-    <t>60.70.67.88-56</t>
-  </si>
-  <si>
-    <t>25.93.72-86</t>
-  </si>
-  <si>
-    <t>55.00.12-5</t>
-  </si>
-  <si>
-    <t>29.47.74-09</t>
-  </si>
-  <si>
-    <t>26.21.66-80</t>
-  </si>
-  <si>
-    <t>EDUARDO DOS SANTOS MANERICH</t>
-  </si>
-  <si>
-    <t>006.157.746-44</t>
-  </si>
-  <si>
-    <t>77.85.22-6</t>
-  </si>
-  <si>
     <t>MARGARETH MANERICH</t>
   </si>
   <si>
-    <t>09.52.56-02</t>
-  </si>
-  <si>
-    <t>580.624.911-53</t>
-  </si>
-  <si>
-    <t>12513962-6</t>
-  </si>
-  <si>
-    <t>109.481.217-00</t>
-  </si>
-  <si>
-    <t>NAPOLEAO RIBEIRO FALCAO</t>
-  </si>
-  <si>
-    <t>165.536 SP</t>
-  </si>
-  <si>
-    <t>271.135.667-15</t>
-  </si>
-  <si>
-    <t>001.809.480-59</t>
-  </si>
-  <si>
-    <t>080.491.797-37</t>
-  </si>
-  <si>
-    <t>12504802-5</t>
-  </si>
-  <si>
     <t>ERIVALDO JOSE DA SILVA (RFR)</t>
   </si>
   <si>
-    <t>996.762.300-29</t>
-  </si>
-  <si>
     <t>CARLOS FERNANDO SILVA</t>
   </si>
   <si>
-    <t>046.624.152-68</t>
-  </si>
-  <si>
     <t>JOANITA CONSTANTINO SILVA</t>
   </si>
   <si>
-    <t>0399587-9</t>
-  </si>
-  <si>
-    <t>075.922.482-04</t>
-  </si>
-  <si>
-    <t>JANAINA CONSTANTINO SILVA LATORRE</t>
-  </si>
-  <si>
-    <t>385.328.082-04</t>
-  </si>
-  <si>
-    <t>1067962-6</t>
-  </si>
-  <si>
     <t>KAYLAN  SILVA LATORRE</t>
   </si>
   <si>
-    <t>3048887-7</t>
-  </si>
-  <si>
     <t>FERNANDO ROBLEDO DE ASSIS</t>
   </si>
   <si>
-    <t>225.772.202.-78</t>
-  </si>
-  <si>
-    <t>PAULO TADEU AUGUSTO LIMA MELO</t>
-  </si>
-  <si>
-    <t>1731469-0</t>
-  </si>
-  <si>
-    <t>057.139.897-98</t>
-  </si>
-  <si>
-    <t>IZABEL CRISTINA NASCIMENTO DE ARAUJO</t>
-  </si>
-  <si>
-    <t>474761.682-91</t>
-  </si>
-  <si>
     <t>CAMILA DE JESUS MACIEL</t>
   </si>
   <si>
-    <t>033.837.232-67</t>
-  </si>
-  <si>
     <t>ANA LUISA DE JESUS MACIEL</t>
   </si>
   <si>
-    <t>030.596.102-07</t>
-  </si>
-  <si>
-    <t>ROWENA CHRISTINA SOUZA DE JESUS</t>
-  </si>
-  <si>
     <t>LETICIA CALDEIRA GRILLO</t>
   </si>
   <si>
-    <t>45788657-2</t>
-  </si>
-  <si>
-    <t>446.586.158-35</t>
-  </si>
-  <si>
-    <t>ERIKA VANESSA FLORES DE LIMA</t>
-  </si>
-  <si>
-    <t>1560000-9</t>
-  </si>
-  <si>
-    <t>NEIZONEIRE MARQUES DO NASCIMENTO</t>
-  </si>
-  <si>
-    <t>1065935-8</t>
-  </si>
-  <si>
-    <t>476.592.972-87</t>
-  </si>
-  <si>
     <t>LEONARDO BALIEIRO SENA</t>
   </si>
   <si>
-    <t>003.226.212-40</t>
-  </si>
-  <si>
     <t>MARCIA CARDOSO BATISTA</t>
   </si>
   <si>
-    <t>MICHELLE FERREIRA GOES BOTELHO</t>
-  </si>
-  <si>
     <t>RAFAELA MIRANDA MARTINS</t>
   </si>
   <si>
-    <t>3349652-8</t>
-  </si>
-  <si>
-    <t>032.410.872-98</t>
-  </si>
-  <si>
     <t>EVANILSON LIMA DOS SANTOS</t>
   </si>
   <si>
-    <t>053.535.597-11</t>
-  </si>
-  <si>
-    <t>SONIA MARIA BENEVIDES DA COSTA</t>
-  </si>
-  <si>
-    <t>274.819.302.-44</t>
-  </si>
-  <si>
     <t>MARIA CICERA SILVA MARTINS</t>
   </si>
   <si>
-    <t>0621416-9</t>
-  </si>
-  <si>
-    <t>436.268.232-53</t>
-  </si>
-  <si>
-    <t>GABRIEL GARCIA RODRIGUES DE SOUZA</t>
-  </si>
-  <si>
-    <t>041.161.680-33</t>
-  </si>
-  <si>
     <t>PAULO SCHMITZ</t>
   </si>
   <si>
-    <t>228.881.280-04</t>
-  </si>
-  <si>
     <t>CANDIDA ROSA BRUM</t>
   </si>
   <si>
-    <t>339.036.200-25</t>
-  </si>
-  <si>
     <t>SUELY PEREIRA  DA SILVEIRA</t>
   </si>
   <si>
-    <t>2007165762-7</t>
-  </si>
-  <si>
-    <t>208.759.243-87</t>
-  </si>
-  <si>
     <t>WASHINGTON  DE LIMA CUNHA</t>
   </si>
   <si>
-    <t>041.145.187-11</t>
-  </si>
-  <si>
     <t>ANIVERSARIANTE DO MÊS</t>
   </si>
   <si>
@@ -842,253 +359,7 @@
     <t>ANDREZZA SOUZA</t>
   </si>
   <si>
-    <t>VIRGINIA GAMA SILVEIRA DE SOUZA</t>
-  </si>
-  <si>
-    <t>023.370.064-17</t>
-  </si>
-  <si>
-    <t>1006540 SSP.PB</t>
-  </si>
-  <si>
-    <t>MARIA LUCENILZA NASCIMENTO DE OLIVEIRA</t>
-  </si>
-  <si>
-    <t>07/05/19992</t>
-  </si>
-  <si>
-    <t>2832356-4</t>
-  </si>
-  <si>
-    <t>WALTER DA SILVA NASCIMENTO</t>
-  </si>
-  <si>
-    <t>445.491.132-00</t>
-  </si>
-  <si>
-    <t>EDSON CLAUDINO SILVA FILHO</t>
-  </si>
-  <si>
-    <t>061.174.724-39</t>
-  </si>
-  <si>
-    <t>ANTONIO JUCINEY SILVA MACIEL</t>
-  </si>
-  <si>
-    <t>1953533-3</t>
-  </si>
-  <si>
-    <t>LUIZA DA COSTA</t>
-  </si>
-  <si>
     <t xml:space="preserve">ANIVERSARIANTES DO MÊS </t>
-  </si>
-  <si>
-    <t>2857101 DF</t>
-  </si>
-  <si>
-    <t>628.217.682-49</t>
-  </si>
-  <si>
-    <t>JANAINA BRITO DA SILVA DE AQUINO</t>
-  </si>
-  <si>
-    <t>173374-8</t>
-  </si>
-  <si>
-    <t>693985261-15</t>
-  </si>
-  <si>
-    <t>029.539.713-60</t>
-  </si>
-  <si>
-    <t>MARCELIANE  TEIXEIRA</t>
-  </si>
-  <si>
-    <t>002.155.882-58</t>
-  </si>
-  <si>
-    <t>87.97.73.2</t>
-  </si>
-  <si>
-    <t>MAURICIO MESQUITA DE SOUSA</t>
-  </si>
-  <si>
-    <t>JANAINA JAMILA SANTOS</t>
-  </si>
-  <si>
-    <t>739.413.792-91</t>
-  </si>
-  <si>
-    <t>35.92.560-4</t>
-  </si>
-  <si>
-    <t>24.10.076-5</t>
-  </si>
-  <si>
-    <t>022.788.342-07</t>
-  </si>
-  <si>
-    <t>PEDRO HENRIQUE SANTOS</t>
-  </si>
-  <si>
-    <t>096.991.054-10</t>
-  </si>
-  <si>
-    <t>31.88.858-5</t>
-  </si>
-  <si>
-    <t>568.732.552-20</t>
-  </si>
-  <si>
-    <t>LILIANE FONSECA ARRUDA</t>
-  </si>
-  <si>
-    <t>583.248.282-49</t>
-  </si>
-  <si>
-    <t>PAULO RONALDO DOS SANTOS</t>
-  </si>
-  <si>
-    <t>452.981.900.06</t>
-  </si>
-  <si>
-    <t>LUIZ AUGUSTO TEIXEIRA</t>
-  </si>
-  <si>
-    <t>56.68.7463-5</t>
-  </si>
-  <si>
-    <t>485.387.338-42</t>
-  </si>
-  <si>
-    <t>LUANA TEIXEIRA FACCO</t>
-  </si>
-  <si>
-    <t>65.14.7439-5</t>
-  </si>
-  <si>
-    <t>552.073.848-30</t>
-  </si>
-  <si>
-    <t>PRISCILLA LORENA SILVA</t>
-  </si>
-  <si>
-    <t>954.007.532-72</t>
-  </si>
-  <si>
-    <t>ELISABETH VALEIKO DO CARMO RIBEIRO</t>
-  </si>
-  <si>
-    <t>154.982.477-53</t>
-  </si>
-  <si>
-    <t>929.091.597-87</t>
-  </si>
-  <si>
-    <t>ELISSANDRO DE JESUS DE SOUZA MELO</t>
-  </si>
-  <si>
-    <t>601.333.332-72</t>
-  </si>
-  <si>
-    <t>BERNADETE COSTA MELO</t>
-  </si>
-  <si>
-    <t>0897128-5</t>
-  </si>
-  <si>
-    <t>308026952-72</t>
-  </si>
-  <si>
-    <t>ARTHUR VIRGILIO DO CARMO RIBEIRO BISNETO</t>
-  </si>
-  <si>
-    <t>ARTHUR VIRGILIO DO CARMO RIBEIRO NETO</t>
-  </si>
-  <si>
-    <t>1779689-0</t>
-  </si>
-  <si>
-    <t>642.642.462-53</t>
-  </si>
-  <si>
-    <t>ADEILDO JOSÉ DA SILVA</t>
-  </si>
-  <si>
-    <t>SANDRA AlVES PINHEIRO SILVA ( esp. Pr. Adeildo)</t>
-  </si>
-  <si>
-    <t>897.866.611-68</t>
-  </si>
-  <si>
-    <t>MARCOS CASTILHO CRUZ</t>
-  </si>
-  <si>
-    <t>013.004.168-82</t>
-  </si>
-  <si>
-    <t>RICARDO DE MORAES</t>
-  </si>
-  <si>
-    <t>296.534,508-67</t>
-  </si>
-  <si>
-    <t>NUB WEESTER LOPES DE SOUSA</t>
-  </si>
-  <si>
-    <t>345.154.292-72</t>
-  </si>
-  <si>
-    <t>SHERIDAN OLIVEIRA</t>
-  </si>
-  <si>
-    <t>750.961.022-20</t>
-  </si>
-  <si>
-    <t>EDSON DE SANTANA</t>
-  </si>
-  <si>
-    <t>026.300.012-53</t>
-  </si>
-  <si>
-    <t>EURINETE DE SANTANA</t>
-  </si>
-  <si>
-    <t>068.433.442-91</t>
-  </si>
-  <si>
-    <t>774.620.921-15</t>
-  </si>
-  <si>
-    <t>636.646.152-04</t>
-  </si>
-  <si>
-    <t>ANA LUISA DE JESUS MACIEL ( filha Juciney)</t>
-  </si>
-  <si>
-    <t>CAMILA DE JESUS MACIEL ( filha Juciney)</t>
-  </si>
-  <si>
-    <t>850.978.292-04</t>
-  </si>
-  <si>
-    <t>JEFFERSON RIBEIRO DOS SANTOS</t>
-  </si>
-  <si>
-    <t>646.270.202-87</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> DONIZETE VILELA</t>
-  </si>
-  <si>
-    <t>529.527.709-72</t>
-  </si>
-  <si>
-    <t>ANNE CAROLINNE VALEIKO BRAGA ( filha Elisabeth)</t>
-  </si>
-  <si>
-    <t>788.576.222-72</t>
   </si>
   <si>
     <t>NOME</t>
@@ -2046,8 +1317,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F138"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A112" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B122" sqref="B122"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A108" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B117" sqref="B117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2061,7 +1332,7 @@
   <sheetData>
     <row r="1" spans="1:4" s="41" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="30" t="s">
-        <v>350</v>
+        <v>107</v>
       </c>
       <c r="B1" s="40" t="s">
         <v>1</v>
@@ -2074,1592 +1345,722 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="22" t="s">
-        <v>324</v>
-      </c>
-      <c r="B2" s="24">
-        <v>28056</v>
-      </c>
+      <c r="A2" s="22"/>
+      <c r="B2" s="24"/>
       <c r="C2" s="22"/>
-      <c r="D2" s="42" t="s">
-        <v>339</v>
-      </c>
+      <c r="D2" s="42"/>
     </row>
     <row r="3" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="22" t="s">
-        <v>44</v>
-      </c>
-      <c r="B3" s="24">
-        <v>33969</v>
-      </c>
-      <c r="C3" s="22" t="s">
-        <v>109</v>
-      </c>
-      <c r="D3" s="22" t="s">
-        <v>45</v>
-      </c>
+      <c r="A3" s="22"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
     </row>
     <row r="4" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="22" t="s">
-        <v>46</v>
-      </c>
+      <c r="A4" s="22"/>
       <c r="B4" s="24"/>
-      <c r="C4" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="D4" s="22" t="s">
-        <v>47</v>
-      </c>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
     </row>
     <row r="5" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="22" t="s">
-        <v>341</v>
-      </c>
-      <c r="B5" s="24">
-        <v>39344</v>
-      </c>
-      <c r="C5" s="22" t="s">
-        <v>289</v>
-      </c>
-      <c r="D5" s="22" t="s">
-        <v>193</v>
-      </c>
+      <c r="A5" s="22"/>
+      <c r="B5" s="24"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
     </row>
     <row r="6" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="24">
-        <v>29469</v>
-      </c>
-      <c r="C6" s="22" t="s">
-        <v>110</v>
-      </c>
-      <c r="D6" s="22" t="s">
-        <v>13</v>
-      </c>
+      <c r="A6" s="22"/>
+      <c r="B6" s="24"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="22"/>
     </row>
     <row r="7" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="B7" s="24">
-        <v>36521</v>
-      </c>
-      <c r="C7" s="22" t="s">
-        <v>111</v>
-      </c>
+      <c r="A7" s="22"/>
+      <c r="B7" s="24"/>
+      <c r="C7" s="22"/>
       <c r="D7" s="22"/>
     </row>
     <row r="8" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="22" t="s">
-        <v>277</v>
-      </c>
-      <c r="B8" s="24">
-        <v>31689</v>
-      </c>
-      <c r="C8" s="22" t="s">
-        <v>278</v>
-      </c>
-      <c r="D8" s="22" t="s">
-        <v>343</v>
-      </c>
+      <c r="A8" s="22"/>
+      <c r="B8" s="24"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="22"/>
     </row>
     <row r="9" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="22" t="s">
-        <v>99</v>
-      </c>
-      <c r="B9" s="24">
-        <v>25790</v>
-      </c>
-      <c r="C9" s="25" t="s">
-        <v>112</v>
-      </c>
-      <c r="D9" s="22" t="s">
-        <v>100</v>
-      </c>
+      <c r="A9" s="22"/>
+      <c r="B9" s="24"/>
+      <c r="C9" s="25"/>
+      <c r="D9" s="22"/>
     </row>
     <row r="10" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="22" t="s">
-        <v>73</v>
-      </c>
-      <c r="B10" s="24">
-        <v>36840</v>
-      </c>
-      <c r="C10" s="22" t="s">
-        <v>113</v>
-      </c>
+      <c r="A10" s="22"/>
+      <c r="B10" s="24"/>
+      <c r="C10" s="22"/>
       <c r="D10" s="22"/>
     </row>
     <row r="11" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A11" s="22" t="s">
-        <v>348</v>
-      </c>
-      <c r="B11" s="24">
-        <v>36166</v>
-      </c>
-      <c r="C11" s="22">
-        <v>22553177</v>
-      </c>
-      <c r="D11" s="22" t="s">
-        <v>349</v>
-      </c>
+      <c r="A11" s="22"/>
+      <c r="B11" s="24"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="22"/>
     </row>
     <row r="12" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A12" s="22" t="s">
-        <v>60</v>
-      </c>
-      <c r="B12" s="24">
-        <v>30582</v>
-      </c>
-      <c r="C12" s="22" t="s">
-        <v>114</v>
-      </c>
-      <c r="D12" s="22" t="s">
-        <v>61</v>
-      </c>
+      <c r="A12" s="22"/>
+      <c r="B12" s="24"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="22"/>
     </row>
     <row r="13" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A13" s="22" t="s">
-        <v>64</v>
-      </c>
+      <c r="A13" s="22"/>
       <c r="B13" s="24"/>
-      <c r="C13" s="22" t="s">
-        <v>115</v>
-      </c>
-      <c r="D13" s="22" t="s">
-        <v>65</v>
-      </c>
+      <c r="C13" s="22"/>
+      <c r="D13" s="22"/>
     </row>
     <row r="14" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A14" s="22" t="s">
-        <v>320</v>
-      </c>
-      <c r="B14" s="24">
-        <v>29129</v>
-      </c>
-      <c r="C14" s="22" t="s">
-        <v>322</v>
-      </c>
-      <c r="D14" s="22" t="s">
-        <v>323</v>
-      </c>
+      <c r="A14" s="22"/>
+      <c r="B14" s="24"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="22"/>
     </row>
     <row r="15" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A15" s="38" t="s">
-        <v>321</v>
-      </c>
-      <c r="B15" s="24">
-        <v>16756</v>
-      </c>
+      <c r="A15" s="38"/>
+      <c r="B15" s="24"/>
       <c r="C15" s="22"/>
-      <c r="D15" s="38" t="s">
-        <v>313</v>
-      </c>
+      <c r="D15" s="38"/>
     </row>
     <row r="16" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A16" s="22" t="s">
-        <v>317</v>
-      </c>
-      <c r="B16" s="24">
-        <v>24926</v>
-      </c>
-      <c r="C16" s="22" t="s">
-        <v>318</v>
-      </c>
-      <c r="D16" s="22" t="s">
-        <v>319</v>
-      </c>
+      <c r="A16" s="22"/>
+      <c r="B16" s="24"/>
+      <c r="C16" s="22"/>
+      <c r="D16" s="22"/>
     </row>
     <row r="17" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A17" s="22" t="s">
-        <v>54</v>
-      </c>
+      <c r="A17" s="22"/>
       <c r="B17" s="24"/>
-      <c r="C17" s="22" t="s">
-        <v>116</v>
-      </c>
+      <c r="C17" s="22"/>
       <c r="D17" s="22"/>
     </row>
     <row r="18" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A18" s="22" t="s">
-        <v>342</v>
-      </c>
-      <c r="B18" s="24">
-        <v>41212</v>
-      </c>
-      <c r="C18" s="22">
-        <v>8797731</v>
-      </c>
-      <c r="D18" s="22" t="s">
-        <v>191</v>
-      </c>
+      <c r="A18" s="22"/>
+      <c r="B18" s="24"/>
+      <c r="C18" s="22"/>
+      <c r="D18" s="22"/>
     </row>
     <row r="19" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A19" s="22" t="s">
-        <v>221</v>
-      </c>
-      <c r="B19" s="24">
-        <v>22195</v>
-      </c>
-      <c r="C19" s="22">
-        <v>3014585891</v>
-      </c>
-      <c r="D19" s="22" t="s">
-        <v>222</v>
-      </c>
+      <c r="A19" s="22"/>
+      <c r="B19" s="24"/>
+      <c r="C19" s="22"/>
+      <c r="D19" s="22"/>
     </row>
     <row r="20" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A20" s="22" t="s">
-        <v>173</v>
-      </c>
-      <c r="B20" s="24">
-        <v>19120</v>
-      </c>
-      <c r="C20" s="22">
-        <v>516828</v>
-      </c>
-      <c r="D20" s="22" t="s">
-        <v>174</v>
-      </c>
+      <c r="A20" s="22"/>
+      <c r="B20" s="24"/>
+      <c r="C20" s="22"/>
+      <c r="D20" s="22"/>
     </row>
     <row r="21" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A21" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="B21" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="C21" s="22" t="s">
-        <v>117</v>
-      </c>
-      <c r="D21" s="37" t="s">
-        <v>168</v>
-      </c>
+      <c r="A21" s="22"/>
+      <c r="B21" s="24"/>
+      <c r="C21" s="22"/>
+      <c r="D21" s="37"/>
     </row>
     <row r="22" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A22" s="22" t="s">
-        <v>85</v>
-      </c>
-      <c r="B22" s="24">
-        <v>26047</v>
-      </c>
-      <c r="C22" s="22" t="s">
-        <v>118</v>
-      </c>
-      <c r="D22" s="22" t="s">
-        <v>86</v>
-      </c>
+      <c r="A22" s="22"/>
+      <c r="B22" s="24"/>
+      <c r="C22" s="22"/>
+      <c r="D22" s="22"/>
     </row>
     <row r="23" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A23" s="22" t="s">
-        <v>97</v>
-      </c>
-      <c r="B23" s="24">
-        <v>28448</v>
-      </c>
-      <c r="C23" s="22" t="s">
-        <v>119</v>
-      </c>
-      <c r="D23" s="22" t="s">
-        <v>98</v>
-      </c>
+      <c r="A23" s="22"/>
+      <c r="B23" s="24"/>
+      <c r="C23" s="22"/>
+      <c r="D23" s="22"/>
     </row>
     <row r="24" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A24" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="B24" s="24">
-        <v>31495</v>
-      </c>
-      <c r="C24" s="22" t="s">
-        <v>120</v>
-      </c>
+      <c r="A24" s="22"/>
+      <c r="B24" s="24"/>
+      <c r="C24" s="22"/>
       <c r="D24" s="22"/>
     </row>
     <row r="25" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A25" s="22" t="s">
-        <v>82</v>
-      </c>
-      <c r="B25" s="24">
-        <v>22671</v>
-      </c>
-      <c r="C25" s="22" t="s">
-        <v>121</v>
-      </c>
-      <c r="D25" s="22" t="s">
-        <v>83</v>
-      </c>
+      <c r="A25" s="22"/>
+      <c r="B25" s="24"/>
+      <c r="C25" s="22"/>
+      <c r="D25" s="22"/>
     </row>
     <row r="26" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A26" s="22" t="s">
-        <v>346</v>
-      </c>
-      <c r="B26" s="24">
-        <v>24006</v>
-      </c>
+      <c r="A26" s="22"/>
+      <c r="B26" s="24"/>
       <c r="C26" s="22"/>
-      <c r="D26" s="22" t="s">
-        <v>347</v>
-      </c>
+      <c r="D26" s="22"/>
     </row>
     <row r="27" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A27" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="B27" s="24">
-        <v>27168</v>
-      </c>
-      <c r="C27" s="22" t="s">
-        <v>122</v>
-      </c>
-      <c r="D27" s="22" t="s">
-        <v>8</v>
-      </c>
+      <c r="A27" s="22"/>
+      <c r="B27" s="24"/>
+      <c r="C27" s="22"/>
+      <c r="D27" s="22"/>
     </row>
     <row r="28" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A28" s="22" t="s">
-        <v>101</v>
-      </c>
-      <c r="B28" s="24">
-        <v>23961</v>
-      </c>
-      <c r="C28" s="22" t="s">
-        <v>153</v>
-      </c>
-      <c r="D28" s="22" t="s">
-        <v>102</v>
-      </c>
+      <c r="A28" s="22"/>
+      <c r="B28" s="24"/>
+      <c r="C28" s="22"/>
+      <c r="D28" s="22"/>
     </row>
     <row r="29" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A29" s="22" t="s">
-        <v>275</v>
-      </c>
-      <c r="B29" s="24">
-        <v>31196</v>
-      </c>
-      <c r="C29" s="22">
-        <v>7030937</v>
-      </c>
-      <c r="D29" s="22" t="s">
-        <v>276</v>
-      </c>
+      <c r="A29" s="22"/>
+      <c r="B29" s="24"/>
+      <c r="C29" s="22"/>
+      <c r="D29" s="22"/>
     </row>
     <row r="30" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A30" s="22" t="s">
-        <v>335</v>
-      </c>
-      <c r="B30" s="24">
-        <v>18483</v>
-      </c>
+      <c r="A30" s="22"/>
+      <c r="B30" s="24"/>
       <c r="C30" s="22"/>
-      <c r="D30" s="22" t="s">
-        <v>336</v>
-      </c>
+      <c r="D30" s="22"/>
     </row>
     <row r="31" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A31" s="22" t="s">
-        <v>94</v>
-      </c>
-      <c r="B31" s="24">
-        <v>42986</v>
-      </c>
-      <c r="C31" s="22" t="s">
-        <v>47</v>
-      </c>
+      <c r="A31" s="22"/>
+      <c r="B31" s="24"/>
+      <c r="C31" s="22"/>
       <c r="D31" s="22"/>
     </row>
     <row r="32" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A32" s="22" t="s">
-        <v>157</v>
-      </c>
-      <c r="B32" s="24">
-        <v>28653</v>
-      </c>
-      <c r="C32" s="22" t="s">
-        <v>159</v>
-      </c>
-      <c r="D32" s="22" t="s">
-        <v>158</v>
-      </c>
+      <c r="A32" s="22"/>
+      <c r="B32" s="24"/>
+      <c r="C32" s="22"/>
+      <c r="D32" s="22"/>
     </row>
     <row r="33" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A33" s="38" t="s">
-        <v>312</v>
-      </c>
-      <c r="B33" s="24">
-        <v>24024</v>
-      </c>
+      <c r="A33" s="38"/>
+      <c r="B33" s="24"/>
       <c r="C33" s="22"/>
-      <c r="D33" s="38" t="s">
-        <v>314</v>
-      </c>
+      <c r="D33" s="38"/>
     </row>
     <row r="34" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A34" s="22" t="s">
-        <v>315</v>
-      </c>
-      <c r="B34" s="24">
-        <v>28484</v>
-      </c>
-      <c r="C34" s="22">
-        <v>298636</v>
-      </c>
-      <c r="D34" s="22" t="s">
-        <v>316</v>
-      </c>
+      <c r="A34" s="22"/>
+      <c r="B34" s="24"/>
+      <c r="C34" s="22"/>
+      <c r="D34" s="22"/>
     </row>
     <row r="35" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A35" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="B35" s="24">
-        <v>32799</v>
-      </c>
-      <c r="C35" s="22" t="s">
-        <v>123</v>
-      </c>
-      <c r="D35" s="22" t="s">
-        <v>38</v>
-      </c>
+      <c r="A35" s="22"/>
+      <c r="B35" s="24"/>
+      <c r="C35" s="22"/>
+      <c r="D35" s="22"/>
     </row>
     <row r="36" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A36" s="22" t="s">
-        <v>198</v>
-      </c>
-      <c r="B36" s="24">
-        <v>29995</v>
-      </c>
-      <c r="C36" s="22" t="s">
-        <v>199</v>
-      </c>
+      <c r="A36" s="22"/>
+      <c r="B36" s="24"/>
+      <c r="C36" s="22"/>
       <c r="D36" s="22"/>
     </row>
     <row r="37" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A37" s="22" t="s">
-        <v>171</v>
-      </c>
-      <c r="B37" s="26">
-        <v>28962</v>
-      </c>
-      <c r="C37" s="22" t="s">
-        <v>170</v>
-      </c>
-      <c r="D37" s="22" t="s">
-        <v>169</v>
-      </c>
+      <c r="A37" s="22"/>
+      <c r="B37" s="26"/>
+      <c r="C37" s="22"/>
+      <c r="D37" s="22"/>
     </row>
     <row r="38" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A38" s="22" t="s">
-        <v>337</v>
-      </c>
-      <c r="B38" s="24">
-        <v>19680</v>
-      </c>
+      <c r="A38" s="22"/>
+      <c r="B38" s="24"/>
       <c r="C38" s="22"/>
-      <c r="D38" s="22" t="s">
-        <v>338</v>
-      </c>
+      <c r="D38" s="22"/>
     </row>
     <row r="39" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A39" s="22" t="s">
-        <v>210</v>
-      </c>
-      <c r="B39" s="24">
-        <v>28323</v>
-      </c>
-      <c r="C39" s="22">
-        <v>11480994</v>
-      </c>
-      <c r="D39" s="22" t="s">
-        <v>211</v>
-      </c>
+      <c r="A39" s="22"/>
+      <c r="B39" s="24"/>
+      <c r="C39" s="22"/>
+      <c r="D39" s="22"/>
     </row>
     <row r="40" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A40" s="22" t="s">
-        <v>183</v>
-      </c>
-      <c r="B40" s="24">
-        <v>25028</v>
-      </c>
-      <c r="C40" s="22">
-        <v>101287</v>
-      </c>
-      <c r="D40" s="22" t="s">
-        <v>184</v>
-      </c>
+      <c r="A40" s="22"/>
+      <c r="B40" s="24"/>
+      <c r="C40" s="22"/>
+      <c r="D40" s="22"/>
     </row>
     <row r="41" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A41" s="22" t="s">
-        <v>66</v>
-      </c>
-      <c r="B41" s="24">
-        <v>37088</v>
-      </c>
-      <c r="C41" s="22" t="s">
-        <v>124</v>
-      </c>
-      <c r="D41" s="22" t="s">
-        <v>295</v>
-      </c>
+      <c r="A41" s="22"/>
+      <c r="B41" s="24"/>
+      <c r="C41" s="22"/>
+      <c r="D41" s="22"/>
     </row>
     <row r="42" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A42" s="22" t="s">
-        <v>217</v>
-      </c>
-      <c r="B42" s="24">
-        <v>35445</v>
-      </c>
-      <c r="C42" s="22">
-        <v>9114900922</v>
-      </c>
-      <c r="D42" s="22" t="s">
-        <v>218</v>
-      </c>
+      <c r="A42" s="22"/>
+      <c r="B42" s="24"/>
+      <c r="C42" s="22"/>
+      <c r="D42" s="22"/>
     </row>
     <row r="43" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A43" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="B43" s="24">
-        <v>37660</v>
-      </c>
-      <c r="C43" s="22" t="s">
-        <v>125</v>
-      </c>
-      <c r="D43" s="22" t="s">
-        <v>32</v>
-      </c>
+      <c r="A43" s="22"/>
+      <c r="B43" s="24"/>
+      <c r="C43" s="22"/>
+      <c r="D43" s="22"/>
     </row>
     <row r="44" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A44" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="B44" s="24">
-        <v>36794</v>
-      </c>
-      <c r="C44" s="22" t="s">
-        <v>126</v>
-      </c>
-      <c r="D44" s="22" t="s">
-        <v>26</v>
-      </c>
+      <c r="A44" s="22"/>
+      <c r="B44" s="24"/>
+      <c r="C44" s="22"/>
+      <c r="D44" s="22"/>
     </row>
     <row r="45" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A45" s="23" t="s">
-        <v>84</v>
-      </c>
-      <c r="B45" s="27">
-        <v>27003</v>
-      </c>
-      <c r="C45" s="23" t="s">
-        <v>127</v>
-      </c>
-      <c r="D45" s="22" t="s">
-        <v>4</v>
-      </c>
+      <c r="A45" s="23"/>
+      <c r="B45" s="27"/>
+      <c r="C45" s="23"/>
+      <c r="D45" s="22"/>
     </row>
     <row r="46" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A46" s="23" t="s">
-        <v>68</v>
-      </c>
-      <c r="B46" s="27">
-        <v>32946</v>
-      </c>
-      <c r="C46" s="23" t="s">
-        <v>128</v>
-      </c>
-      <c r="D46" s="22" t="s">
-        <v>69</v>
-      </c>
+      <c r="A46" s="23"/>
+      <c r="B46" s="27"/>
+      <c r="C46" s="23"/>
+      <c r="D46" s="22"/>
     </row>
     <row r="47" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A47" s="22" t="s">
-        <v>105</v>
-      </c>
-      <c r="B47" s="24">
-        <v>35725</v>
-      </c>
-      <c r="C47" s="22" t="s">
-        <v>155</v>
-      </c>
-      <c r="D47" s="22" t="s">
-        <v>106</v>
-      </c>
+      <c r="A47" s="22"/>
+      <c r="B47" s="24"/>
+      <c r="C47" s="22"/>
+      <c r="D47" s="22"/>
     </row>
     <row r="48" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A48" s="22" t="s">
-        <v>188</v>
-      </c>
-      <c r="B48" s="24">
-        <v>27887</v>
-      </c>
+      <c r="A48" s="22"/>
+      <c r="B48" s="24"/>
       <c r="C48" s="22"/>
-      <c r="D48" s="22" t="s">
-        <v>189</v>
-      </c>
+      <c r="D48" s="22"/>
     </row>
     <row r="49" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A49" s="22" t="s">
-        <v>283</v>
-      </c>
+      <c r="A49" s="22"/>
       <c r="B49" s="24"/>
-      <c r="C49" s="22" t="s">
-        <v>284</v>
-      </c>
-      <c r="D49" s="22" t="s">
-        <v>285</v>
-      </c>
+      <c r="C49" s="22"/>
+      <c r="D49" s="22"/>
     </row>
     <row r="50" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A50" s="22" t="s">
-        <v>178</v>
-      </c>
-      <c r="B50" s="24">
-        <v>26870</v>
-      </c>
-      <c r="C50" s="22" t="s">
-        <v>180</v>
-      </c>
-      <c r="D50" s="22" t="s">
-        <v>179</v>
-      </c>
+      <c r="A50" s="22"/>
+      <c r="B50" s="24"/>
+      <c r="C50" s="22"/>
+      <c r="D50" s="22"/>
     </row>
     <row r="51" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A51" s="22" t="s">
-        <v>291</v>
-      </c>
-      <c r="B51" s="24">
-        <v>30566</v>
-      </c>
-      <c r="C51" s="22" t="s">
-        <v>293</v>
-      </c>
-      <c r="D51" s="22" t="s">
-        <v>292</v>
-      </c>
+      <c r="A51" s="22"/>
+      <c r="B51" s="24"/>
+      <c r="C51" s="22"/>
+      <c r="D51" s="22"/>
     </row>
     <row r="52" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A52" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="B52" s="24">
-        <v>36909</v>
-      </c>
-      <c r="C52" s="22" t="s">
-        <v>129</v>
-      </c>
-      <c r="D52" s="22" t="s">
-        <v>34</v>
-      </c>
+      <c r="A52" s="22"/>
+      <c r="B52" s="24"/>
+      <c r="C52" s="22"/>
+      <c r="D52" s="22"/>
     </row>
     <row r="53" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A53" s="22" t="s">
-        <v>344</v>
-      </c>
-      <c r="B53" s="24">
-        <v>29427</v>
-      </c>
+      <c r="A53" s="22"/>
+      <c r="B53" s="24"/>
       <c r="C53" s="22"/>
-      <c r="D53" s="22" t="s">
-        <v>345</v>
-      </c>
+      <c r="D53" s="22"/>
     </row>
     <row r="54" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A54" s="22" t="s">
-        <v>175</v>
-      </c>
-      <c r="B54" s="24">
-        <v>20436</v>
-      </c>
-      <c r="C54" s="22" t="s">
-        <v>176</v>
-      </c>
-      <c r="D54" s="22" t="s">
-        <v>177</v>
-      </c>
+      <c r="A54" s="22"/>
+      <c r="B54" s="24"/>
+      <c r="C54" s="22"/>
+      <c r="D54" s="22"/>
     </row>
     <row r="55" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A55" s="22" t="s">
-        <v>53</v>
-      </c>
+      <c r="A55" s="22"/>
       <c r="B55" s="24"/>
-      <c r="C55" s="22" t="s">
-        <v>130</v>
-      </c>
+      <c r="C55" s="22"/>
       <c r="D55" s="22"/>
     </row>
     <row r="56" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A56" s="22" t="s">
-        <v>95</v>
-      </c>
-      <c r="B56" s="24">
-        <v>27945</v>
-      </c>
-      <c r="C56" s="22" t="s">
-        <v>131</v>
-      </c>
-      <c r="D56" s="22" t="s">
-        <v>96</v>
-      </c>
+      <c r="A56" s="22"/>
+      <c r="B56" s="24"/>
+      <c r="C56" s="22"/>
+      <c r="D56" s="22"/>
     </row>
     <row r="57" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A57" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="B57" s="24">
-        <v>22027</v>
-      </c>
-      <c r="C57" s="22" t="s">
-        <v>132</v>
-      </c>
-      <c r="D57" s="22" t="s">
-        <v>59</v>
-      </c>
+      <c r="A57" s="22"/>
+      <c r="B57" s="24"/>
+      <c r="C57" s="22"/>
+      <c r="D57" s="22"/>
     </row>
     <row r="58" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A58" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="B58" s="24">
-        <v>34946</v>
-      </c>
-      <c r="C58" s="22" t="s">
-        <v>133</v>
-      </c>
-      <c r="D58" s="22" t="s">
-        <v>30</v>
-      </c>
+      <c r="A58" s="22"/>
+      <c r="B58" s="24"/>
+      <c r="C58" s="22"/>
+      <c r="D58" s="22"/>
     </row>
     <row r="59" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A59" s="22" t="s">
-        <v>51</v>
-      </c>
-      <c r="B59" s="24">
-        <v>29858</v>
-      </c>
-      <c r="C59" s="22" t="s">
-        <v>163</v>
-      </c>
-      <c r="D59" s="22" t="s">
-        <v>164</v>
-      </c>
+      <c r="A59" s="22"/>
+      <c r="B59" s="24"/>
+      <c r="C59" s="22"/>
+      <c r="D59" s="22"/>
     </row>
     <row r="60" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A60" s="22" t="s">
-        <v>42</v>
-      </c>
-      <c r="B60" s="24">
-        <v>27404</v>
-      </c>
-      <c r="C60" s="22" t="s">
-        <v>134</v>
-      </c>
-      <c r="D60" s="22" t="s">
-        <v>43</v>
-      </c>
+      <c r="A60" s="22"/>
+      <c r="B60" s="24"/>
+      <c r="C60" s="22"/>
+      <c r="D60" s="22"/>
     </row>
     <row r="61" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A61" s="22" t="s">
-        <v>181</v>
-      </c>
-      <c r="B61" s="24">
-        <v>39801</v>
-      </c>
-      <c r="C61" s="22" t="s">
-        <v>182</v>
-      </c>
+      <c r="A61" s="22"/>
+      <c r="B61" s="24"/>
+      <c r="C61" s="22"/>
       <c r="D61" s="22"/>
     </row>
     <row r="62" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A62" s="22" t="s">
-        <v>76</v>
-      </c>
-      <c r="B62" s="24">
-        <v>31397</v>
-      </c>
-      <c r="C62" s="22" t="s">
-        <v>77</v>
-      </c>
+      <c r="A62" s="22"/>
+      <c r="B62" s="24"/>
+      <c r="C62" s="22"/>
       <c r="D62" s="22"/>
     </row>
     <row r="63" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A63" s="22" t="s">
-        <v>89</v>
-      </c>
-      <c r="B63" s="24">
-        <v>32131</v>
-      </c>
+      <c r="A63" s="22"/>
+      <c r="B63" s="24"/>
       <c r="C63" s="22"/>
-      <c r="D63" s="22" t="s">
-        <v>90</v>
-      </c>
+      <c r="D63" s="22"/>
     </row>
     <row r="64" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A64" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="B64" s="24">
-        <v>38760</v>
-      </c>
-      <c r="C64" s="22" t="s">
-        <v>135</v>
-      </c>
-      <c r="D64" s="22" t="s">
-        <v>17</v>
-      </c>
+      <c r="A64" s="22"/>
+      <c r="B64" s="24"/>
+      <c r="C64" s="22"/>
+      <c r="D64" s="22"/>
     </row>
     <row r="65" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A65" s="22" t="s">
-        <v>203</v>
-      </c>
-      <c r="B65" s="24">
-        <v>33196</v>
-      </c>
-      <c r="C65" s="22" t="s">
-        <v>294</v>
-      </c>
-      <c r="D65" s="22" t="s">
-        <v>204</v>
-      </c>
+      <c r="A65" s="22"/>
+      <c r="B65" s="24"/>
+      <c r="C65" s="22"/>
+      <c r="D65" s="22"/>
     </row>
     <row r="66" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A66" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="B66" s="24">
-        <v>27849</v>
-      </c>
-      <c r="C66" s="28" t="s">
-        <v>136</v>
-      </c>
-      <c r="D66" s="22" t="s">
-        <v>6</v>
-      </c>
+      <c r="A66" s="22"/>
+      <c r="B66" s="24"/>
+      <c r="C66" s="28"/>
+      <c r="D66" s="22"/>
     </row>
     <row r="67" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A67" s="22" t="s">
-        <v>195</v>
-      </c>
-      <c r="B67" s="24">
-        <v>35654</v>
-      </c>
-      <c r="C67" s="22" t="s">
-        <v>196</v>
-      </c>
-      <c r="D67" s="22" t="s">
-        <v>197</v>
-      </c>
+      <c r="A67" s="22"/>
+      <c r="B67" s="24"/>
+      <c r="C67" s="22"/>
+      <c r="D67" s="22"/>
     </row>
     <row r="68" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A68" s="22" t="s">
-        <v>300</v>
-      </c>
-      <c r="B68" s="24">
-        <v>26211</v>
-      </c>
+      <c r="A68" s="22"/>
+      <c r="B68" s="24"/>
       <c r="C68" s="22"/>
-      <c r="D68" s="22" t="s">
-        <v>301</v>
-      </c>
+      <c r="D68" s="22"/>
     </row>
     <row r="69" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A69" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="B69" s="24">
-        <v>28119</v>
-      </c>
-      <c r="C69" s="22" t="s">
-        <v>137</v>
-      </c>
-      <c r="D69" s="22" t="s">
-        <v>9</v>
-      </c>
+      <c r="A69" s="22"/>
+      <c r="B69" s="24"/>
+      <c r="C69" s="22"/>
+      <c r="D69" s="22"/>
     </row>
     <row r="70" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A70" s="22" t="s">
-        <v>307</v>
-      </c>
-      <c r="B70" s="24">
-        <v>41527</v>
-      </c>
-      <c r="C70" s="22" t="s">
-        <v>308</v>
-      </c>
-      <c r="D70" s="22" t="s">
-        <v>309</v>
-      </c>
+      <c r="A70" s="22"/>
+      <c r="B70" s="24"/>
+      <c r="C70" s="22"/>
+      <c r="D70" s="22"/>
     </row>
     <row r="71" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A71" s="22" t="s">
-        <v>80</v>
-      </c>
-      <c r="B71" s="24">
-        <v>33118</v>
-      </c>
-      <c r="C71" s="22" t="s">
-        <v>138</v>
-      </c>
-      <c r="D71" s="22" t="s">
-        <v>81</v>
-      </c>
+      <c r="A71" s="22"/>
+      <c r="B71" s="24"/>
+      <c r="C71" s="22"/>
+      <c r="D71" s="22"/>
     </row>
     <row r="72" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A72" s="22" t="s">
-        <v>304</v>
-      </c>
+      <c r="A72" s="22"/>
       <c r="B72" s="24"/>
-      <c r="C72" s="22" t="s">
-        <v>305</v>
-      </c>
-      <c r="D72" s="22" t="s">
-        <v>306</v>
-      </c>
+      <c r="C72" s="22"/>
+      <c r="D72" s="22"/>
     </row>
     <row r="73" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A73" s="22" t="s">
-        <v>279</v>
-      </c>
-      <c r="B73" s="24">
-        <v>15810</v>
-      </c>
-      <c r="C73" s="22">
-        <v>300387</v>
-      </c>
+      <c r="A73" s="22"/>
+      <c r="B73" s="24"/>
+      <c r="C73" s="22"/>
       <c r="D73" s="22"/>
     </row>
     <row r="74" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A74" s="22" t="s">
-        <v>287</v>
-      </c>
-      <c r="B74" s="24">
-        <v>32603</v>
-      </c>
-      <c r="C74" s="22">
-        <v>590292365</v>
-      </c>
-      <c r="D74" s="22" t="s">
-        <v>286</v>
-      </c>
+      <c r="A74" s="22"/>
+      <c r="B74" s="24"/>
+      <c r="C74" s="22"/>
+      <c r="D74" s="22"/>
     </row>
     <row r="75" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A75" s="22" t="s">
-        <v>205</v>
-      </c>
-      <c r="B75" s="24">
-        <v>31524</v>
-      </c>
-      <c r="C75" s="22">
-        <v>5947504</v>
-      </c>
+      <c r="A75" s="22"/>
+      <c r="B75" s="24"/>
+      <c r="C75" s="22"/>
       <c r="D75" s="22"/>
     </row>
     <row r="76" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A76" s="22" t="s">
-        <v>70</v>
-      </c>
-      <c r="B76" s="24">
-        <v>28403</v>
-      </c>
-      <c r="C76" s="22" t="s">
-        <v>139</v>
-      </c>
-      <c r="D76" s="22" t="s">
-        <v>71</v>
-      </c>
+      <c r="A76" s="22"/>
+      <c r="B76" s="24"/>
+      <c r="C76" s="22"/>
+      <c r="D76" s="22"/>
     </row>
     <row r="77" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A77" s="22" t="s">
-        <v>327</v>
-      </c>
-      <c r="B77" s="24">
-        <v>22366</v>
-      </c>
+      <c r="A77" s="22"/>
+      <c r="B77" s="24"/>
       <c r="C77" s="22"/>
-      <c r="D77" s="22" t="s">
-        <v>328</v>
-      </c>
+      <c r="D77" s="22"/>
     </row>
     <row r="78" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A78" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="B78" s="24">
-        <v>22262</v>
-      </c>
-      <c r="C78" s="22" t="s">
-        <v>140</v>
-      </c>
-      <c r="D78" s="22" t="s">
-        <v>11</v>
-      </c>
+      <c r="A78" s="22"/>
+      <c r="B78" s="24"/>
+      <c r="C78" s="22"/>
+      <c r="D78" s="22"/>
     </row>
     <row r="79" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A79" s="23" t="s">
-        <v>160</v>
-      </c>
-      <c r="B79" s="27">
-        <v>24630</v>
-      </c>
-      <c r="C79" s="23" t="s">
-        <v>161</v>
-      </c>
-      <c r="D79" s="22" t="s">
-        <v>162</v>
-      </c>
+      <c r="A79" s="23"/>
+      <c r="B79" s="27"/>
+      <c r="C79" s="23"/>
+      <c r="D79" s="22"/>
     </row>
     <row r="80" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A80" s="22" t="s">
-        <v>214</v>
-      </c>
-      <c r="B80" s="24">
-        <v>15723</v>
-      </c>
-      <c r="C80" s="22" t="s">
-        <v>215</v>
-      </c>
-      <c r="D80" s="22" t="s">
-        <v>216</v>
-      </c>
+      <c r="A80" s="22"/>
+      <c r="B80" s="24"/>
+      <c r="C80" s="22"/>
+      <c r="D80" s="22"/>
     </row>
     <row r="81" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A81" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="B81" s="24">
-        <v>42277</v>
-      </c>
-      <c r="C81" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="D81" s="22" t="s">
-        <v>47</v>
-      </c>
+      <c r="A81" s="22"/>
+      <c r="B81" s="24"/>
+      <c r="C81" s="22"/>
+      <c r="D81" s="22"/>
     </row>
     <row r="82" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A82" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="B82" s="24">
-        <v>39692</v>
-      </c>
-      <c r="C82" s="22" t="s">
-        <v>141</v>
-      </c>
-      <c r="D82" s="22" t="s">
-        <v>19</v>
-      </c>
+      <c r="A82" s="22"/>
+      <c r="B82" s="24"/>
+      <c r="C82" s="22"/>
+      <c r="D82" s="22"/>
     </row>
     <row r="83" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A83" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="B83" s="24">
-        <v>28732</v>
-      </c>
-      <c r="C83" s="22" t="s">
-        <v>281</v>
-      </c>
-      <c r="D83" s="22" t="s">
-        <v>282</v>
-      </c>
+      <c r="A83" s="22"/>
+      <c r="B83" s="24"/>
+      <c r="C83" s="22"/>
+      <c r="D83" s="22"/>
     </row>
     <row r="84" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A84" s="22" t="s">
-        <v>67</v>
-      </c>
-      <c r="B84" s="24">
-        <v>36526</v>
-      </c>
-      <c r="C84" s="22" t="s">
-        <v>142</v>
-      </c>
-      <c r="D84" s="22" t="s">
-        <v>23</v>
-      </c>
+      <c r="A84" s="22"/>
+      <c r="B84" s="24"/>
+      <c r="C84" s="22"/>
+      <c r="D84" s="22"/>
     </row>
     <row r="85" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A85" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="B85" s="24">
-        <v>37681</v>
-      </c>
-      <c r="C85" s="22" t="s">
-        <v>143</v>
-      </c>
-      <c r="D85" s="22" t="s">
-        <v>36</v>
-      </c>
+      <c r="A85" s="22"/>
+      <c r="B85" s="24"/>
+      <c r="C85" s="22"/>
+      <c r="D85" s="22"/>
     </row>
     <row r="86" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A86" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="B86" s="24">
-        <v>26813</v>
-      </c>
-      <c r="C86" s="29" t="s">
-        <v>144</v>
-      </c>
-      <c r="D86" s="22" t="s">
-        <v>299</v>
-      </c>
+      <c r="A86" s="22"/>
+      <c r="B86" s="24"/>
+      <c r="C86" s="29"/>
+      <c r="D86" s="22"/>
     </row>
     <row r="87" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A87" s="22" t="s">
-        <v>103</v>
-      </c>
-      <c r="B87" s="24">
-        <v>22975</v>
-      </c>
-      <c r="C87" s="22" t="s">
-        <v>154</v>
-      </c>
-      <c r="D87" s="22" t="s">
-        <v>104</v>
-      </c>
+      <c r="A87" s="22"/>
+      <c r="B87" s="24"/>
+      <c r="C87" s="22"/>
+      <c r="D87" s="22"/>
     </row>
     <row r="88" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A88" s="22" t="s">
-        <v>270</v>
-      </c>
-      <c r="B88" s="24" t="s">
-        <v>271</v>
-      </c>
-      <c r="C88" s="22" t="s">
-        <v>272</v>
-      </c>
+      <c r="A88" s="22"/>
+      <c r="B88" s="24"/>
+      <c r="C88" s="22"/>
       <c r="D88" s="22"/>
     </row>
     <row r="89" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A89" s="22" t="s">
-        <v>93</v>
-      </c>
-      <c r="B89" s="24">
-        <v>42247</v>
-      </c>
-      <c r="C89" s="22" t="s">
-        <v>92</v>
-      </c>
+      <c r="A89" s="22"/>
+      <c r="B89" s="24"/>
+      <c r="C89" s="22"/>
       <c r="D89" s="22"/>
     </row>
     <row r="90" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A90" s="22" t="s">
-        <v>290</v>
-      </c>
+      <c r="A90" s="22"/>
       <c r="B90" s="24"/>
-      <c r="C90" s="22">
-        <v>1041668</v>
-      </c>
-      <c r="D90" s="22" t="s">
-        <v>288</v>
-      </c>
+      <c r="C90" s="22"/>
+      <c r="D90" s="22"/>
     </row>
     <row r="91" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A91" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="B91" s="24">
-        <v>34107</v>
-      </c>
-      <c r="C91" s="22" t="s">
-        <v>145</v>
-      </c>
-      <c r="D91" s="22" t="s">
-        <v>50</v>
-      </c>
+      <c r="A91" s="22"/>
+      <c r="B91" s="24"/>
+      <c r="C91" s="22"/>
+      <c r="D91" s="22"/>
     </row>
     <row r="92" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A92" s="22" t="s">
-        <v>206</v>
-      </c>
-      <c r="B92" s="24">
-        <v>25000</v>
-      </c>
-      <c r="C92" s="22" t="s">
-        <v>146</v>
-      </c>
-      <c r="D92" s="22" t="s">
-        <v>39</v>
-      </c>
+      <c r="A92" s="22"/>
+      <c r="B92" s="24"/>
+      <c r="C92" s="22"/>
+      <c r="D92" s="22"/>
     </row>
     <row r="93" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A93" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="B93" s="24">
-        <v>35362</v>
-      </c>
-      <c r="C93" s="22" t="s">
-        <v>147</v>
-      </c>
-      <c r="D93" s="22" t="s">
-        <v>28</v>
-      </c>
+      <c r="A93" s="22"/>
+      <c r="B93" s="24"/>
+      <c r="C93" s="22"/>
+      <c r="D93" s="22"/>
     </row>
     <row r="94" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A94" s="22" t="s">
-        <v>165</v>
-      </c>
-      <c r="B94" s="24">
-        <v>17876</v>
-      </c>
-      <c r="C94" s="22" t="s">
-        <v>166</v>
-      </c>
-      <c r="D94" s="22" t="s">
-        <v>167</v>
-      </c>
+      <c r="A94" s="22"/>
+      <c r="B94" s="24"/>
+      <c r="C94" s="22"/>
+      <c r="D94" s="22"/>
     </row>
     <row r="95" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A95" s="22" t="s">
-        <v>200</v>
-      </c>
-      <c r="B95" s="24">
-        <v>26211</v>
-      </c>
-      <c r="C95" s="22" t="s">
-        <v>201</v>
-      </c>
-      <c r="D95" s="22" t="s">
-        <v>202</v>
-      </c>
+      <c r="A95" s="22"/>
+      <c r="B95" s="24"/>
+      <c r="C95" s="22"/>
+      <c r="D95" s="22"/>
     </row>
     <row r="96" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A96" s="22" t="s">
-        <v>331</v>
-      </c>
-      <c r="B96" s="24">
-        <v>25263</v>
-      </c>
+      <c r="A96" s="22"/>
+      <c r="B96" s="24"/>
       <c r="C96" s="22"/>
-      <c r="D96" s="22" t="s">
-        <v>332</v>
-      </c>
+      <c r="D96" s="22"/>
     </row>
     <row r="97" spans="1:4" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A97" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="B97" s="24">
-        <v>28577</v>
-      </c>
-      <c r="C97" s="22" t="s">
-        <v>148</v>
-      </c>
-      <c r="D97" s="22" t="s">
-        <v>41</v>
-      </c>
+      <c r="A97" s="22"/>
+      <c r="B97" s="24"/>
+      <c r="C97" s="22"/>
+      <c r="D97" s="22"/>
     </row>
     <row r="98" spans="1:4" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A98" s="22" t="s">
-        <v>302</v>
-      </c>
-      <c r="B98" s="24">
-        <v>24120</v>
-      </c>
+      <c r="A98" s="22"/>
+      <c r="B98" s="24"/>
       <c r="C98" s="22"/>
-      <c r="D98" s="22" t="s">
-        <v>303</v>
-      </c>
+      <c r="D98" s="22"/>
     </row>
     <row r="99" spans="1:4" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A99" s="22" t="s">
-        <v>219</v>
-      </c>
-      <c r="B99" s="24">
-        <v>17693</v>
-      </c>
-      <c r="C99" s="22">
-        <v>5002963253</v>
-      </c>
-      <c r="D99" s="22" t="s">
-        <v>220</v>
-      </c>
+      <c r="A99" s="22"/>
+      <c r="B99" s="24"/>
+      <c r="C99" s="22"/>
+      <c r="D99" s="22"/>
     </row>
     <row r="100" spans="1:4" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A100" s="22" t="s">
-        <v>185</v>
-      </c>
-      <c r="B100" s="24">
-        <v>30360</v>
-      </c>
-      <c r="C100" s="22" t="s">
-        <v>186</v>
-      </c>
-      <c r="D100" s="22" t="s">
-        <v>187</v>
-      </c>
+      <c r="A100" s="22"/>
+      <c r="B100" s="24"/>
+      <c r="C100" s="22"/>
+      <c r="D100" s="22"/>
     </row>
     <row r="101" spans="1:4" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A101" s="22" t="s">
-        <v>296</v>
-      </c>
-      <c r="B101" s="24">
-        <v>35868</v>
-      </c>
-      <c r="C101" s="22" t="s">
-        <v>298</v>
-      </c>
-      <c r="D101" s="22" t="s">
-        <v>297</v>
-      </c>
+      <c r="A101" s="22"/>
+      <c r="B101" s="24"/>
+      <c r="C101" s="22"/>
+      <c r="D101" s="22"/>
     </row>
     <row r="102" spans="1:4" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A102" s="22" t="s">
-        <v>310</v>
-      </c>
-      <c r="B102" s="24">
-        <v>32048</v>
-      </c>
+      <c r="A102" s="22"/>
+      <c r="B102" s="24"/>
       <c r="C102" s="22"/>
-      <c r="D102" s="22" t="s">
-        <v>311</v>
-      </c>
+      <c r="D102" s="22"/>
     </row>
     <row r="103" spans="1:4" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A103" s="22" t="s">
-        <v>207</v>
-      </c>
-      <c r="B103" s="24">
-        <v>36066</v>
-      </c>
-      <c r="C103" s="22" t="s">
-        <v>208</v>
-      </c>
-      <c r="D103" s="22" t="s">
-        <v>209</v>
-      </c>
+      <c r="A103" s="22"/>
+      <c r="B103" s="24"/>
+      <c r="C103" s="22"/>
+      <c r="D103" s="22"/>
     </row>
     <row r="104" spans="1:4" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A104" s="22" t="s">
-        <v>107</v>
-      </c>
-      <c r="B104" s="24">
-        <v>35022</v>
-      </c>
-      <c r="C104" s="22" t="s">
-        <v>156</v>
-      </c>
-      <c r="D104" s="22" t="s">
-        <v>108</v>
-      </c>
+      <c r="A104" s="22"/>
+      <c r="B104" s="24"/>
+      <c r="C104" s="22"/>
+      <c r="D104" s="22"/>
     </row>
     <row r="105" spans="1:4" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A105" s="22" t="s">
-        <v>329</v>
-      </c>
-      <c r="B105" s="24">
-        <v>29513</v>
-      </c>
+      <c r="A105" s="22"/>
+      <c r="B105" s="24"/>
       <c r="C105" s="22"/>
-      <c r="D105" s="22" t="s">
-        <v>330</v>
-      </c>
+      <c r="D105" s="22"/>
     </row>
     <row r="106" spans="1:4" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A106" s="22" t="s">
-        <v>87</v>
-      </c>
-      <c r="B106" s="24">
-        <v>31314</v>
-      </c>
-      <c r="C106" s="22" t="s">
-        <v>149</v>
-      </c>
-      <c r="D106" s="22" t="s">
-        <v>88</v>
-      </c>
+      <c r="A106" s="22"/>
+      <c r="B106" s="24"/>
+      <c r="C106" s="22"/>
+      <c r="D106" s="22"/>
     </row>
     <row r="107" spans="1:4" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A107" s="22" t="s">
-        <v>194</v>
-      </c>
-      <c r="B107" s="24">
-        <v>29148</v>
-      </c>
-      <c r="C107" s="22">
-        <v>3394200</v>
-      </c>
-      <c r="D107" s="22" t="s">
-        <v>340</v>
-      </c>
+      <c r="A107" s="22"/>
+      <c r="B107" s="24"/>
+      <c r="C107" s="22"/>
+      <c r="D107" s="22"/>
     </row>
     <row r="108" spans="1:4" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A108" s="22" t="s">
-        <v>74</v>
-      </c>
-      <c r="B108" s="24">
-        <v>42803</v>
-      </c>
+      <c r="A108" s="22"/>
+      <c r="B108" s="24"/>
       <c r="C108" s="22"/>
-      <c r="D108" s="22" t="s">
-        <v>75</v>
-      </c>
+      <c r="D108" s="22"/>
     </row>
     <row r="109" spans="1:4" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A109" s="22" t="s">
-        <v>325</v>
-      </c>
-      <c r="B109" s="24">
-        <v>28909</v>
-      </c>
+      <c r="A109" s="22"/>
+      <c r="B109" s="24"/>
       <c r="C109" s="22"/>
-      <c r="D109" s="22" t="s">
-        <v>326</v>
-      </c>
+      <c r="D109" s="22"/>
     </row>
     <row r="110" spans="1:4" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A110" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="B110" s="24">
-        <v>27272</v>
-      </c>
-      <c r="C110" s="22" t="s">
-        <v>150</v>
-      </c>
-      <c r="D110" s="22" t="s">
-        <v>15</v>
-      </c>
+      <c r="A110" s="22"/>
+      <c r="B110" s="24"/>
+      <c r="C110" s="22"/>
+      <c r="D110" s="22"/>
     </row>
     <row r="111" spans="1:4" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A111" s="22" t="s">
-        <v>78</v>
-      </c>
-      <c r="B111" s="24">
-        <v>41130</v>
-      </c>
-      <c r="C111" s="22" t="s">
-        <v>79</v>
-      </c>
+      <c r="A111" s="22"/>
+      <c r="B111" s="24"/>
+      <c r="C111" s="22"/>
       <c r="D111" s="22"/>
     </row>
     <row r="112" spans="1:4" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A112" s="22" t="s">
-        <v>333</v>
-      </c>
-      <c r="B112" s="24">
-        <v>30783</v>
-      </c>
+      <c r="A112" s="22"/>
+      <c r="B112" s="24"/>
       <c r="C112" s="22"/>
-      <c r="D112" s="22" t="s">
-        <v>334</v>
-      </c>
+      <c r="D112" s="22"/>
     </row>
     <row r="113" spans="1:4" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A113" s="22" t="s">
-        <v>212</v>
-      </c>
-      <c r="B113" s="24">
-        <v>20628</v>
-      </c>
-      <c r="C113" s="22">
-        <v>225369</v>
-      </c>
-      <c r="D113" s="22" t="s">
-        <v>213</v>
-      </c>
+      <c r="A113" s="22"/>
+      <c r="B113" s="24"/>
+      <c r="C113" s="22"/>
+      <c r="D113" s="22"/>
     </row>
     <row r="114" spans="1:4" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A114" s="22" t="s">
-        <v>223</v>
-      </c>
-      <c r="B114" s="24">
-        <v>23434</v>
-      </c>
-      <c r="C114" s="22" t="s">
-        <v>224</v>
-      </c>
-      <c r="D114" s="22" t="s">
-        <v>225</v>
-      </c>
+      <c r="A114" s="22"/>
+      <c r="B114" s="24"/>
+      <c r="C114" s="22"/>
+      <c r="D114" s="22"/>
     </row>
     <row r="115" spans="1:4" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A115" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="B115" s="24">
-        <v>30411</v>
-      </c>
-      <c r="C115" s="22" t="s">
-        <v>151</v>
-      </c>
-      <c r="D115" s="22" t="s">
-        <v>172</v>
-      </c>
+      <c r="A115" s="22"/>
+      <c r="B115" s="24"/>
+      <c r="C115" s="22"/>
+      <c r="D115" s="22"/>
     </row>
     <row r="116" spans="1:4" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A116" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="B116" s="24">
-        <v>30306</v>
-      </c>
-      <c r="C116" s="22" t="s">
-        <v>152</v>
-      </c>
-      <c r="D116" s="22" t="s">
-        <v>63</v>
-      </c>
+      <c r="A116" s="22"/>
+      <c r="B116" s="24"/>
+      <c r="C116" s="22"/>
+      <c r="D116" s="22"/>
     </row>
     <row r="117" spans="1:4" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A117" s="22" t="s">
-        <v>91</v>
-      </c>
-      <c r="B117" s="24">
-        <v>41838</v>
-      </c>
-      <c r="C117" s="22" t="s">
-        <v>92</v>
-      </c>
+      <c r="A117" s="22"/>
+      <c r="B117" s="24"/>
+      <c r="C117" s="22"/>
       <c r="D117" s="22"/>
     </row>
     <row r="118" spans="1:4" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A118" s="22" t="s">
-        <v>267</v>
-      </c>
-      <c r="B118" s="24">
-        <v>24541</v>
-      </c>
-      <c r="C118" s="22" t="s">
-        <v>269</v>
-      </c>
-      <c r="D118" s="22" t="s">
-        <v>268</v>
-      </c>
+      <c r="A118" s="22"/>
+      <c r="B118" s="24"/>
+      <c r="C118" s="22"/>
+      <c r="D118" s="22"/>
     </row>
     <row r="119" spans="1:4" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A119" s="22" t="s">
-        <v>273</v>
-      </c>
+      <c r="A119" s="22"/>
       <c r="B119" s="24"/>
-      <c r="C119" s="22">
-        <v>15670</v>
-      </c>
-      <c r="D119" s="22" t="s">
-        <v>274</v>
-      </c>
+      <c r="C119" s="22"/>
+      <c r="D119" s="22"/>
     </row>
     <row r="120" spans="1:4" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A120" s="22" t="s">
-        <v>226</v>
-      </c>
-      <c r="B120" s="24">
-        <v>28378</v>
-      </c>
-      <c r="C120" s="22">
-        <v>110067</v>
-      </c>
-      <c r="D120" s="22" t="s">
-        <v>227</v>
-      </c>
+      <c r="A120" s="22"/>
+      <c r="B120" s="24"/>
+      <c r="C120" s="22"/>
+      <c r="D120" s="22"/>
     </row>
     <row r="121" spans="1:4" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A121" s="22" t="s">
-        <v>352</v>
+        <v>109</v>
       </c>
       <c r="B121" s="24">
         <v>44772</v>
@@ -3669,7 +2070,7 @@
     </row>
     <row r="122" spans="1:4" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A122" s="22" t="s">
-        <v>353</v>
+        <v>110</v>
       </c>
       <c r="B122" s="24">
         <v>44772</v>
@@ -3679,7 +2080,7 @@
     </row>
     <row r="123" spans="1:4" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A123" s="22" t="s">
-        <v>354</v>
+        <v>111</v>
       </c>
       <c r="B123" s="24">
         <v>44772</v>
@@ -3689,7 +2090,7 @@
     </row>
     <row r="124" spans="1:4" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A124" s="22" t="s">
-        <v>351</v>
+        <v>108</v>
       </c>
       <c r="B124" s="24">
         <v>44772</v>
@@ -3816,7 +2217,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="35.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="43" t="s">
-        <v>228</v>
+        <v>67</v>
       </c>
       <c r="B1" s="44"/>
       <c r="C1" s="44"/>
@@ -3833,27 +2234,27 @@
     <row r="2" spans="1:12" ht="24" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A2" s="4"/>
       <c r="B2" s="5" t="s">
-        <v>229</v>
+        <v>68</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="5" t="s">
-        <v>230</v>
+        <v>69</v>
       </c>
       <c r="E2" s="6"/>
       <c r="F2" s="5" t="s">
-        <v>231</v>
+        <v>70</v>
       </c>
       <c r="G2" s="6"/>
       <c r="H2" s="5" t="s">
-        <v>232</v>
+        <v>71</v>
       </c>
       <c r="I2" s="6"/>
       <c r="J2" s="5" t="s">
-        <v>233</v>
+        <v>72</v>
       </c>
       <c r="K2" s="6"/>
       <c r="L2" s="5" t="s">
-        <v>234</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -3861,72 +2262,72 @@
         <v>0</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>241</v>
+        <v>80</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>0</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>241</v>
+        <v>80</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>0</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>241</v>
+        <v>80</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>0</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>241</v>
+        <v>80</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>0</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>241</v>
+        <v>80</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>0</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>241</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
-        <v>242</v>
+        <v>81</v>
       </c>
       <c r="B4" s="8">
         <v>43466</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="D4" s="8">
         <v>43504</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="F4" s="8">
         <v>43525</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="H4" s="8">
         <v>43560</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>173</v>
+        <v>51</v>
       </c>
       <c r="J4" s="8">
         <v>43591</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>160</v>
+        <v>49</v>
       </c>
       <c r="L4" s="8">
         <v>43623</v>
@@ -3934,37 +2335,37 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="B5" s="8">
         <v>43475</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D5" s="8">
         <v>43508</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>74</v>
+        <v>39</v>
       </c>
       <c r="F5" s="8">
         <v>43533</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>171</v>
+        <v>50</v>
       </c>
       <c r="H5" s="8">
         <v>43572</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>258</v>
+        <v>97</v>
       </c>
       <c r="J5" s="8">
         <v>43592</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>219</v>
+        <v>63</v>
       </c>
       <c r="L5" s="8">
         <v>43625</v>
@@ -3972,37 +2373,37 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
-        <v>243</v>
+        <v>82</v>
       </c>
       <c r="B6" s="8">
         <v>43480</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>248</v>
+        <v>87</v>
       </c>
       <c r="D6" s="8">
         <v>43509</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>68</v>
+        <v>36</v>
       </c>
       <c r="F6" s="8">
         <v>43538</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>58</v>
+        <v>32</v>
       </c>
       <c r="H6" s="8">
         <v>43576</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="J6" s="8">
         <v>43603</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>259</v>
+        <v>98</v>
       </c>
       <c r="L6" s="8">
         <v>43627</v>
@@ -4010,37 +2411,37 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
-        <v>214</v>
+        <v>62</v>
       </c>
       <c r="B7" s="8">
         <v>43482</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>249</v>
+        <v>88</v>
       </c>
       <c r="D7" s="8">
         <v>43509</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="F7" s="8">
         <v>43548</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>205</v>
+        <v>59</v>
       </c>
       <c r="H7" s="8">
         <v>43577</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>72</v>
+        <v>37</v>
       </c>
       <c r="J7" s="8">
         <v>43604</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>260</v>
+        <v>99</v>
       </c>
       <c r="L7" s="8">
         <v>43628</v>
@@ -4048,37 +2449,37 @@
     </row>
     <row r="8" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="7" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="B8" s="8">
         <v>43483</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>223</v>
+        <v>65</v>
       </c>
       <c r="D8" s="10">
         <v>43523</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>252</v>
+        <v>91</v>
       </c>
       <c r="F8" s="8">
         <v>43552</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>254</v>
+        <v>93</v>
       </c>
       <c r="H8" s="10">
         <v>43579</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>52</v>
+        <v>26</v>
       </c>
       <c r="J8" s="14">
         <v>43614</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>261</v>
+        <v>100</v>
       </c>
       <c r="L8" s="8">
         <v>43638</v>
@@ -4086,7 +2487,7 @@
     </row>
     <row r="9" spans="1:12" ht="24" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A9" s="11" t="s">
-        <v>82</v>
+        <v>41</v>
       </c>
       <c r="B9" s="12">
         <v>43490</v>
@@ -4094,7 +2495,7 @@
       <c r="C9" s="13"/>
       <c r="D9" s="13"/>
       <c r="E9" s="11" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F9" s="12">
         <v>43554</v>
@@ -4103,7 +2504,7 @@
       <c r="H9" s="13"/>
       <c r="I9" s="6"/>
       <c r="J9" s="5" t="s">
-        <v>239</v>
+        <v>78</v>
       </c>
       <c r="K9" s="13"/>
       <c r="L9" s="13"/>
@@ -4111,29 +2512,29 @@
     <row r="10" spans="1:12" ht="24" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A10" s="6"/>
       <c r="B10" s="5" t="s">
-        <v>235</v>
+        <v>74</v>
       </c>
       <c r="C10" s="6"/>
       <c r="D10" s="5" t="s">
-        <v>236</v>
+        <v>75</v>
       </c>
       <c r="E10" s="6"/>
       <c r="F10" s="5" t="s">
-        <v>237</v>
+        <v>76</v>
       </c>
       <c r="G10" s="6"/>
       <c r="H10" s="5" t="s">
-        <v>238</v>
+        <v>77</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>0</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>241</v>
+        <v>80</v>
       </c>
       <c r="K10" s="6"/>
       <c r="L10" s="5" t="s">
-        <v>240</v>
+        <v>79</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -4141,28 +2542,28 @@
         <v>0</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>241</v>
+        <v>80</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>0</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>241</v>
+        <v>80</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>0</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>241</v>
+        <v>80</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>0</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>241</v>
+        <v>80</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>73</v>
+        <v>38</v>
       </c>
       <c r="J11" s="8">
         <v>43779</v>
@@ -4171,42 +2572,42 @@
         <v>0</v>
       </c>
       <c r="L11" s="3" t="s">
-        <v>241</v>
+        <v>80</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
-        <v>244</v>
+        <v>83</v>
       </c>
       <c r="B12" s="8">
         <v>43650</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>101</v>
+        <v>45</v>
       </c>
       <c r="D12" s="8">
         <v>43684</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="F12" s="8">
         <v>43709</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>255</v>
+        <v>94</v>
       </c>
       <c r="H12" s="8">
         <v>43743</v>
       </c>
       <c r="I12" s="7" t="s">
-        <v>97</v>
+        <v>43</v>
       </c>
       <c r="J12" s="8">
         <v>43788</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>262</v>
+        <v>101</v>
       </c>
       <c r="L12" s="8">
         <v>43804</v>
@@ -4214,37 +2615,37 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
-        <v>183</v>
+        <v>54</v>
       </c>
       <c r="B13" s="8">
         <v>43655</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>250</v>
+        <v>89</v>
       </c>
       <c r="D13" s="8">
         <v>43686</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="F13" s="8">
         <v>43710</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>256</v>
+        <v>95</v>
       </c>
       <c r="H13" s="8">
         <v>43743</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>107</v>
+        <v>48</v>
       </c>
       <c r="J13" s="8">
         <v>43788</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>263</v>
+        <v>102</v>
       </c>
       <c r="L13" s="8">
         <v>43808</v>
@@ -4252,37 +2653,37 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
-        <v>245</v>
+        <v>84</v>
       </c>
       <c r="B14" s="8">
         <v>43662</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>99</v>
+        <v>44</v>
       </c>
       <c r="D14" s="8">
         <v>43687</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="F14" s="8">
         <v>43712</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>221</v>
+        <v>64</v>
       </c>
       <c r="H14" s="8">
         <v>43744</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>203</v>
+        <v>58</v>
       </c>
       <c r="J14" s="8">
         <v>43788</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="L14" s="8">
         <v>43811</v>
@@ -4290,37 +2691,37 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
-        <v>210</v>
+        <v>61</v>
       </c>
       <c r="B15" s="8">
         <v>43663</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>195</v>
+        <v>57</v>
       </c>
       <c r="D15" s="8">
         <v>43689</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="F15" s="8">
         <v>43713</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="H15" s="8">
         <v>43756</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>103</v>
+        <v>46</v>
       </c>
       <c r="J15" s="8">
         <v>43794</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>175</v>
+        <v>52</v>
       </c>
       <c r="L15" s="8">
         <v>43812</v>
@@ -4328,25 +2729,25 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
-        <v>246</v>
+        <v>85</v>
       </c>
       <c r="B16" s="8">
         <v>43664</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>251</v>
+        <v>90</v>
       </c>
       <c r="D16" s="8">
         <v>43708</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>253</v>
+        <v>92</v>
       </c>
       <c r="F16" s="8">
         <v>43716</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>257</v>
+        <v>96</v>
       </c>
       <c r="H16" s="8">
         <v>43758</v>
@@ -4354,7 +2755,7 @@
       <c r="I16" s="13"/>
       <c r="J16" s="13"/>
       <c r="K16" s="7" t="s">
-        <v>264</v>
+        <v>103</v>
       </c>
       <c r="L16" s="8">
         <v>43815</v>
@@ -4362,25 +2763,25 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
-        <v>247</v>
+        <v>86</v>
       </c>
       <c r="B17" s="8">
         <v>43671</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D17" s="8">
         <v>43708</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>226</v>
+        <v>66</v>
       </c>
       <c r="F17" s="8">
         <v>43718</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>105</v>
+        <v>47</v>
       </c>
       <c r="H17" s="14">
         <v>43760</v>
@@ -4388,7 +2789,7 @@
       <c r="I17" s="13"/>
       <c r="J17" s="13"/>
       <c r="K17" s="15" t="s">
-        <v>181</v>
+        <v>53</v>
       </c>
       <c r="L17" s="8">
         <v>43818</v>
@@ -4400,13 +2801,13 @@
       <c r="C18" s="13"/>
       <c r="D18" s="13"/>
       <c r="E18" s="15" t="s">
-        <v>192</v>
+        <v>56</v>
       </c>
       <c r="F18" s="8">
         <v>43727</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="H18" s="14">
         <v>43762</v>
@@ -4414,7 +2815,7 @@
       <c r="I18" s="13"/>
       <c r="J18" s="13"/>
       <c r="K18" s="15" t="s">
-        <v>265</v>
+        <v>104</v>
       </c>
       <c r="L18" s="8">
         <v>43819</v>
@@ -4426,13 +2827,13 @@
       <c r="C19" s="13"/>
       <c r="D19" s="13"/>
       <c r="E19" s="15" t="s">
-        <v>60</v>
+        <v>33</v>
       </c>
       <c r="F19" s="8">
         <v>43731</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="H19" s="14">
         <v>43763</v>
@@ -4440,7 +2841,7 @@
       <c r="I19" s="13"/>
       <c r="J19" s="13"/>
       <c r="K19" s="15" t="s">
-        <v>62</v>
+        <v>34</v>
       </c>
       <c r="L19" s="8">
         <v>43820</v>
@@ -4452,13 +2853,13 @@
       <c r="C20" s="13"/>
       <c r="D20" s="13"/>
       <c r="E20" s="15" t="s">
-        <v>87</v>
+        <v>42</v>
       </c>
       <c r="F20" s="8">
         <v>43732</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>190</v>
+        <v>55</v>
       </c>
       <c r="H20" s="14">
         <v>43768</v>
@@ -4466,7 +2867,7 @@
       <c r="I20" s="13"/>
       <c r="J20" s="13"/>
       <c r="K20" s="15" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="L20" s="8">
         <v>43824</v>
@@ -4478,7 +2879,7 @@
       <c r="C21" s="13"/>
       <c r="D21" s="13"/>
       <c r="E21" s="15" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="F21" s="14">
         <v>43733</v>
@@ -4488,7 +2889,7 @@
       <c r="I21" s="13"/>
       <c r="J21" s="13"/>
       <c r="K21" s="15" t="s">
-        <v>266</v>
+        <v>105</v>
       </c>
       <c r="L21" s="8">
         <v>43826</v>
@@ -4500,7 +2901,7 @@
       <c r="C22" s="13"/>
       <c r="D22" s="13"/>
       <c r="E22" s="15" t="s">
-        <v>207</v>
+        <v>60</v>
       </c>
       <c r="F22" s="14">
         <v>43736</v>
@@ -4510,7 +2911,7 @@
       <c r="I22" s="13"/>
       <c r="J22" s="13"/>
       <c r="K22" s="15" t="s">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="L22" s="8">
         <v>43830</v>
@@ -4522,7 +2923,7 @@
       <c r="C23" s="13"/>
       <c r="D23" s="13"/>
       <c r="E23" s="15" t="s">
-        <v>51</v>
+        <v>25</v>
       </c>
       <c r="F23" s="14">
         <v>43737</v>
@@ -4532,7 +2933,7 @@
       <c r="I23" s="13"/>
       <c r="J23" s="13"/>
       <c r="K23" s="15" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="L23" s="16"/>
     </row>
@@ -4542,7 +2943,7 @@
       <c r="C24" s="13"/>
       <c r="D24" s="13"/>
       <c r="E24" s="15" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="F24" s="14">
         <v>43738</v>
@@ -4552,7 +2953,7 @@
       <c r="I24" s="13"/>
       <c r="J24" s="13"/>
       <c r="K24" s="15" t="s">
-        <v>64</v>
+        <v>35</v>
       </c>
       <c r="L24" s="16"/>
     </row>
@@ -4568,7 +2969,7 @@
       <c r="I25" s="13"/>
       <c r="J25" s="13"/>
       <c r="K25" s="15" t="s">
-        <v>54</v>
+        <v>28</v>
       </c>
       <c r="L25" s="16"/>
     </row>
@@ -4584,7 +2985,7 @@
       <c r="I26" s="13"/>
       <c r="J26" s="13"/>
       <c r="K26" s="15" t="s">
-        <v>57</v>
+        <v>31</v>
       </c>
       <c r="L26" s="16"/>
     </row>
@@ -4600,7 +3001,7 @@
       <c r="I27" s="19"/>
       <c r="J27" s="19"/>
       <c r="K27" s="15" t="s">
-        <v>53</v>
+        <v>27</v>
       </c>
       <c r="L27" s="16"/>
     </row>
@@ -4616,7 +3017,7 @@
       <c r="I28" s="13"/>
       <c r="J28" s="13"/>
       <c r="K28" s="20" t="s">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="L28" s="21"/>
     </row>
@@ -4658,7 +3059,7 @@
     <row r="1" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:3" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="46" t="s">
-        <v>280</v>
+        <v>106</v>
       </c>
       <c r="C2" s="47"/>
     </row>
@@ -4667,12 +3068,12 @@
         <v>0</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>237</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B4" s="7" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C4" s="8">
         <v>43709</v>
@@ -4680,7 +3081,7 @@
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B5" s="7" t="s">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="C5" s="8">
         <v>43710</v>
@@ -4688,7 +3089,7 @@
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B6" s="7" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="C6" s="8">
         <v>43712</v>
@@ -4696,7 +3097,7 @@
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B7" s="7" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C7" s="8">
         <v>43713</v>
@@ -4704,7 +3105,7 @@
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
-        <v>253</v>
+        <v>92</v>
       </c>
       <c r="C8" s="8">
         <v>43716</v>
@@ -4712,7 +3113,7 @@
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B9" s="7" t="s">
-        <v>226</v>
+        <v>66</v>
       </c>
       <c r="C9" s="8">
         <v>43718</v>
@@ -4720,7 +3121,7 @@
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B10" s="7" t="s">
-        <v>192</v>
+        <v>56</v>
       </c>
       <c r="C10" s="8">
         <v>43727</v>
@@ -4728,7 +3129,7 @@
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B11" s="7" t="s">
-        <v>60</v>
+        <v>33</v>
       </c>
       <c r="C11" s="8">
         <v>43731</v>
@@ -4736,7 +3137,7 @@
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B12" s="7" t="s">
-        <v>87</v>
+        <v>42</v>
       </c>
       <c r="C12" s="8">
         <v>43732</v>
@@ -4744,7 +3145,7 @@
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B13" s="7" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="C13" s="8">
         <v>43733</v>
@@ -4752,7 +3153,7 @@
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B14" s="7" t="s">
-        <v>207</v>
+        <v>60</v>
       </c>
       <c r="C14" s="8">
         <v>43736</v>
@@ -4760,7 +3161,7 @@
     </row>
     <row r="15" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B15" s="7" t="s">
-        <v>51</v>
+        <v>25</v>
       </c>
       <c r="C15" s="8">
         <v>43737</v>
@@ -4768,7 +3169,7 @@
     </row>
     <row r="16" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B16" s="33" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="C16" s="34">
         <v>43738</v>

--- a/Planilhas/LISTA DE RG CPF CLIENTES.xlsx
+++ b/Planilhas/LISTA DE RG CPF CLIENTES.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eliander\Desktop\Efraim_Painel\Planilhas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75C9484E-36D3-431B-97FB-2925F5DFCF86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9BDE9EA-8B15-4C75-B23C-B168FFC32D48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3960" yWindow="1116" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="355">
   <si>
     <t>NOME:</t>
   </si>
@@ -53,69 +53,147 @@
     <t>CPF</t>
   </si>
   <si>
+    <t>446.025.372-00</t>
+  </si>
+  <si>
     <t>LEOPOLDO BOTELHO</t>
   </si>
   <si>
+    <t>160.494.702-00</t>
+  </si>
+  <si>
     <t>LISSANDRA COSTA</t>
   </si>
   <si>
+    <t>000.063.049-74</t>
+  </si>
+  <si>
+    <t>633.291.402-59</t>
+  </si>
+  <si>
     <t>MARCOS MARTINELLI</t>
   </si>
   <si>
+    <t>234.225.050.91</t>
+  </si>
+  <si>
     <t>ANDRESSA RAMOS</t>
   </si>
   <si>
+    <t>966.781.430-00</t>
+  </si>
+  <si>
     <t>SANDRO GARCIA ROSA</t>
   </si>
   <si>
+    <t>529.135.200-06</t>
+  </si>
+  <si>
     <t xml:space="preserve">LAÍS MARTINS </t>
   </si>
   <si>
+    <t>701.041.952-31</t>
+  </si>
+  <si>
     <t>MARIA CLARA RAMOS</t>
   </si>
   <si>
+    <t>022.788.152-45</t>
+  </si>
+  <si>
     <t>CINTIA LEÃO BRUM</t>
   </si>
   <si>
+    <t>25/010/1982</t>
+  </si>
+  <si>
     <t>THIAGO GARCIA BRUM</t>
   </si>
   <si>
+    <t>022.788.372-14</t>
+  </si>
+  <si>
+    <t>ANDREZZA MENEZES DE SOUZA</t>
+  </si>
+  <si>
     <t>GIOVANNA FARIAS SANTOS</t>
   </si>
   <si>
+    <t>034.915.542-92</t>
+  </si>
+  <si>
     <t>MIKAELLA GOES BOTELHO</t>
   </si>
   <si>
+    <t>004.185.632-50</t>
+  </si>
+  <si>
     <t>JULINILCE GUIMARAES</t>
   </si>
   <si>
+    <t>018.949.952-44</t>
+  </si>
+  <si>
     <t>GIOVANNA BRITO LIMA</t>
   </si>
   <si>
+    <t>701.854.102-60</t>
+  </si>
+  <si>
     <t>JEFFERSON AGUIAR</t>
   </si>
   <si>
+    <t>939.111.572-15</t>
+  </si>
+  <si>
     <t>MARIA FERNANDA RAMOS</t>
   </si>
   <si>
+    <t>022.788.412-46</t>
+  </si>
+  <si>
     <t>ELLEN CRISTINA IZIDORIO</t>
   </si>
   <si>
+    <t>529.054.972-20</t>
+  </si>
+  <si>
+    <t>320.638.142-87</t>
+  </si>
+  <si>
+    <t>PAULA BOTELHO DAMASCENO GARCIA DA ROSA</t>
+  </si>
+  <si>
+    <t>024.159.329-81</t>
+  </si>
+  <si>
     <t>KARLA KHALIL MARTINELLI</t>
   </si>
   <si>
+    <t>672.187.090-87</t>
+  </si>
+  <si>
     <t>AMANDA FABA</t>
   </si>
   <si>
+    <t>022.788.272-51</t>
+  </si>
+  <si>
     <t>ANA LEÃO BRUM</t>
   </si>
   <si>
+    <t>BB</t>
+  </si>
+  <si>
     <t>MARIA CLARA BOTELHO GARCIA</t>
   </si>
   <si>
     <t>MICHEL BOTELHO</t>
   </si>
   <si>
+    <t>004.300.402-45</t>
+  </si>
+  <si>
     <t>JULIO CESAR MAGALHÃES</t>
   </si>
   <si>
@@ -140,18 +218,45 @@
     <t xml:space="preserve">JORGE VIANA CASTRO </t>
   </si>
   <si>
+    <t>267.751.154.15</t>
+  </si>
+  <si>
     <t>ARLAN SOUZA</t>
   </si>
   <si>
+    <t>761.355.032-68</t>
+  </si>
+  <si>
     <t>TIAGO  LIMA (DR7)</t>
   </si>
   <si>
+    <t>001.602.010.-39</t>
+  </si>
+  <si>
     <t>ARTHUR DA COSTA PONTES</t>
   </si>
   <si>
+    <t>003.391.512-18</t>
+  </si>
+  <si>
+    <t>FREDERICO MATHEUS BALIEIRO RAMOS</t>
+  </si>
+  <si>
+    <t>MARIA EDUARDA BALIEIRO RAMOS</t>
+  </si>
+  <si>
     <t>ILKA REGINA DO NASCIMENTO</t>
   </si>
   <si>
+    <t>106.219.374-10</t>
+  </si>
+  <si>
+    <t>MARCIO ROBERTO ALVES DE SANTANA</t>
+  </si>
+  <si>
+    <t>028.553.674-50</t>
+  </si>
+  <si>
     <t>DUDA BRITO RAMOS</t>
   </si>
   <si>
@@ -161,87 +266,465 @@
     <t>SAM ALMEIDA DA SILVA</t>
   </si>
   <si>
+    <t>706.374.422-45</t>
+  </si>
+  <si>
+    <t>KELLY IZAT MUHAMAD TUMMALEH</t>
+  </si>
+  <si>
+    <t>PASSAPORTE YB379260</t>
+  </si>
+  <si>
+    <t>SARA JADALLAH ADEL RAHMAN TUMMALLEH</t>
+  </si>
+  <si>
+    <t>PASSAPORTE YB801462</t>
+  </si>
+  <si>
     <t>LUCIANE DE SOUZA LEAL</t>
   </si>
   <si>
+    <t>956.419.712-00</t>
+  </si>
+  <si>
     <t>DARCIVAL LUIZ DE ALMEIDA</t>
   </si>
   <si>
+    <t>214.977.292-20</t>
+  </si>
+  <si>
+    <t>HORACIO JOAQUIM SILVA  MARTINS</t>
+  </si>
+  <si>
+    <t>CLAUDIO CESAR RISUENHO CABRAL</t>
+  </si>
+  <si>
+    <t>404.950.602-59</t>
+  </si>
+  <si>
     <t>ROBBY BRINDEIROS PEREIRA</t>
   </si>
   <si>
+    <t>852.822.432-53</t>
+  </si>
+  <si>
+    <t>LAIS CASTRO BRINDEIROS PEREIRA</t>
+  </si>
+  <si>
+    <t>938.914.822-72</t>
+  </si>
+  <si>
+    <t>VINICIUS CASTRO BRINDEIROS PEREIRA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CRIANÇA </t>
+  </si>
+  <si>
+    <t>MATEUS CASTRO BRINDEIROS PEREIRA</t>
+  </si>
+  <si>
+    <t>EDUARDA CASTRO BRINDEIROS PEREIRA</t>
+  </si>
+  <si>
+    <t>JOELMA SOUZA CARDOSO DE SOUZA</t>
+  </si>
+  <si>
+    <t>093.729.917-08</t>
+  </si>
+  <si>
     <t>DANIELLE PAIVA SOUZA PESSOA</t>
   </si>
   <si>
+    <t>573.472.772-20</t>
+  </si>
+  <si>
     <t>ANTONIO LEOCADIO DA SILVA</t>
   </si>
   <si>
+    <t>768.173.186-53</t>
+  </si>
+  <si>
     <t>EDIVALDO LOPES DE LIMA</t>
   </si>
   <si>
+    <t>216.572.462-72</t>
+  </si>
+  <si>
     <t>MARIA JOSE COSTA LIMA</t>
   </si>
   <si>
+    <t>310.731.232-00</t>
+  </si>
+  <si>
     <t>ISRAEL LEVY COSTA LIMA</t>
   </si>
   <si>
+    <t>026.872.002-98</t>
+  </si>
+  <si>
     <t>RAPHAEL ASAFE COSTA LIMA</t>
   </si>
   <si>
+    <t>025.803.502-17</t>
+  </si>
+  <si>
+    <t>28.01.27-98</t>
+  </si>
+  <si>
+    <t>31.98.35-88</t>
+  </si>
+  <si>
+    <t>27.58.38-05</t>
+  </si>
+  <si>
+    <t>200.400.208.821-9</t>
+  </si>
+  <si>
+    <t>35.80.39-91</t>
+  </si>
+  <si>
+    <t>18.00.79-70</t>
+  </si>
+  <si>
+    <t>24.90.94-40</t>
+  </si>
+  <si>
+    <t>23.15.33-93</t>
+  </si>
+  <si>
+    <t>10.80.03.04-46</t>
+  </si>
+  <si>
+    <t>91.38.70-6</t>
+  </si>
+  <si>
+    <t>13.28.81-05</t>
+  </si>
+  <si>
+    <t>26.43.60.64-3</t>
+  </si>
+  <si>
+    <t>05.33.57-79</t>
+  </si>
+  <si>
+    <t>11.24.08-65 SP</t>
+  </si>
+  <si>
+    <t>19.22.35-44</t>
+  </si>
+  <si>
+    <t>30.67.59-52</t>
+  </si>
+  <si>
+    <t>31.45.71-34</t>
+  </si>
+  <si>
+    <t>30.03.640</t>
+  </si>
+  <si>
+    <t>10.56.71-78</t>
+  </si>
+  <si>
+    <t>71.76.69-7</t>
+  </si>
+  <si>
+    <t>31.05.16-85</t>
+  </si>
+  <si>
+    <t>23.74.35.98-6</t>
+  </si>
+  <si>
+    <t>29.85.24-55</t>
+  </si>
+  <si>
+    <t>19.28.95-4</t>
+  </si>
+  <si>
+    <t>25.65.90-06</t>
+  </si>
+  <si>
+    <t>20.48.04-04</t>
+  </si>
+  <si>
+    <t>30.99.06-96</t>
+  </si>
+  <si>
+    <t>05.85.32-06</t>
+  </si>
+  <si>
+    <t>13.00.10-60</t>
+  </si>
+  <si>
+    <t>22.48.72-55</t>
+  </si>
+  <si>
+    <t>55.23.83-3</t>
+  </si>
+  <si>
+    <t>10.09.75.52-55</t>
+  </si>
+  <si>
+    <t>35.07.54-73</t>
+  </si>
+  <si>
+    <t>64.33.97.75-9</t>
+  </si>
+  <si>
+    <t>35.07.55-89</t>
+  </si>
+  <si>
+    <t>12.30.10-19</t>
+  </si>
+  <si>
+    <t>24.29.27-02</t>
+  </si>
+  <si>
+    <t>72.16.97-1</t>
+  </si>
+  <si>
+    <t>24.27.24-77</t>
+  </si>
+  <si>
+    <t>68.36.98-43</t>
+  </si>
+  <si>
+    <t>17.30.95-22</t>
+  </si>
+  <si>
+    <t>10.50.84.00-71</t>
+  </si>
+  <si>
+    <t>40.32.51-4</t>
+  </si>
+  <si>
+    <t>60.70.67.88-56</t>
+  </si>
+  <si>
+    <t>25.93.72-86</t>
+  </si>
+  <si>
+    <t>55.00.12-5</t>
+  </si>
+  <si>
+    <t>29.47.74-09</t>
+  </si>
+  <si>
+    <t>26.21.66-80</t>
+  </si>
+  <si>
+    <t>EDUARDO DOS SANTOS MANERICH</t>
+  </si>
+  <si>
+    <t>006.157.746-44</t>
+  </si>
+  <si>
+    <t>77.85.22-6</t>
+  </si>
+  <si>
     <t>MARGARETH MANERICH</t>
   </si>
   <si>
+    <t>09.52.56-02</t>
+  </si>
+  <si>
+    <t>580.624.911-53</t>
+  </si>
+  <si>
+    <t>12513962-6</t>
+  </si>
+  <si>
+    <t>109.481.217-00</t>
+  </si>
+  <si>
+    <t>NAPOLEAO RIBEIRO FALCAO</t>
+  </si>
+  <si>
+    <t>165.536 SP</t>
+  </si>
+  <si>
+    <t>271.135.667-15</t>
+  </si>
+  <si>
+    <t>001.809.480-59</t>
+  </si>
+  <si>
+    <t>080.491.797-37</t>
+  </si>
+  <si>
+    <t>12504802-5</t>
+  </si>
+  <si>
     <t>ERIVALDO JOSE DA SILVA (RFR)</t>
   </si>
   <si>
+    <t>996.762.300-29</t>
+  </si>
+  <si>
     <t>CARLOS FERNANDO SILVA</t>
   </si>
   <si>
+    <t>046.624.152-68</t>
+  </si>
+  <si>
     <t>JOANITA CONSTANTINO SILVA</t>
   </si>
   <si>
+    <t>0399587-9</t>
+  </si>
+  <si>
+    <t>075.922.482-04</t>
+  </si>
+  <si>
+    <t>JANAINA CONSTANTINO SILVA LATORRE</t>
+  </si>
+  <si>
+    <t>385.328.082-04</t>
+  </si>
+  <si>
+    <t>1067962-6</t>
+  </si>
+  <si>
     <t>KAYLAN  SILVA LATORRE</t>
   </si>
   <si>
+    <t>3048887-7</t>
+  </si>
+  <si>
     <t>FERNANDO ROBLEDO DE ASSIS</t>
   </si>
   <si>
+    <t>225.772.202.-78</t>
+  </si>
+  <si>
+    <t>PAULO TADEU AUGUSTO LIMA MELO</t>
+  </si>
+  <si>
+    <t>1731469-0</t>
+  </si>
+  <si>
+    <t>057.139.897-98</t>
+  </si>
+  <si>
+    <t>IZABEL CRISTINA NASCIMENTO DE ARAUJO</t>
+  </si>
+  <si>
+    <t>474761.682-91</t>
+  </si>
+  <si>
     <t>CAMILA DE JESUS MACIEL</t>
   </si>
   <si>
+    <t>033.837.232-67</t>
+  </si>
+  <si>
     <t>ANA LUISA DE JESUS MACIEL</t>
   </si>
   <si>
+    <t>030.596.102-07</t>
+  </si>
+  <si>
+    <t>ROWENA CHRISTINA SOUZA DE JESUS</t>
+  </si>
+  <si>
     <t>LETICIA CALDEIRA GRILLO</t>
   </si>
   <si>
+    <t>45788657-2</t>
+  </si>
+  <si>
+    <t>446.586.158-35</t>
+  </si>
+  <si>
+    <t>ERIKA VANESSA FLORES DE LIMA</t>
+  </si>
+  <si>
+    <t>1560000-9</t>
+  </si>
+  <si>
+    <t>NEIZONEIRE MARQUES DO NASCIMENTO</t>
+  </si>
+  <si>
+    <t>1065935-8</t>
+  </si>
+  <si>
+    <t>476.592.972-87</t>
+  </si>
+  <si>
     <t>LEONARDO BALIEIRO SENA</t>
   </si>
   <si>
+    <t>003.226.212-40</t>
+  </si>
+  <si>
     <t>MARCIA CARDOSO BATISTA</t>
   </si>
   <si>
+    <t>MICHELLE FERREIRA GOES BOTELHO</t>
+  </si>
+  <si>
     <t>RAFAELA MIRANDA MARTINS</t>
   </si>
   <si>
+    <t>3349652-8</t>
+  </si>
+  <si>
+    <t>032.410.872-98</t>
+  </si>
+  <si>
     <t>EVANILSON LIMA DOS SANTOS</t>
   </si>
   <si>
+    <t>053.535.597-11</t>
+  </si>
+  <si>
+    <t>SONIA MARIA BENEVIDES DA COSTA</t>
+  </si>
+  <si>
+    <t>274.819.302.-44</t>
+  </si>
+  <si>
     <t>MARIA CICERA SILVA MARTINS</t>
   </si>
   <si>
+    <t>0621416-9</t>
+  </si>
+  <si>
+    <t>436.268.232-53</t>
+  </si>
+  <si>
+    <t>GABRIEL GARCIA RODRIGUES DE SOUZA</t>
+  </si>
+  <si>
+    <t>041.161.680-33</t>
+  </si>
+  <si>
     <t>PAULO SCHMITZ</t>
   </si>
   <si>
+    <t>228.881.280-04</t>
+  </si>
+  <si>
     <t>CANDIDA ROSA BRUM</t>
   </si>
   <si>
+    <t>339.036.200-25</t>
+  </si>
+  <si>
     <t>SUELY PEREIRA  DA SILVEIRA</t>
   </si>
   <si>
+    <t>2007165762-7</t>
+  </si>
+  <si>
+    <t>208.759.243-87</t>
+  </si>
+  <si>
     <t>WASHINGTON  DE LIMA CUNHA</t>
   </si>
   <si>
+    <t>041.145.187-11</t>
+  </si>
+  <si>
     <t>ANIVERSARIANTE DO MÊS</t>
   </si>
   <si>
@@ -359,7 +842,253 @@
     <t>ANDREZZA SOUZA</t>
   </si>
   <si>
+    <t>VIRGINIA GAMA SILVEIRA DE SOUZA</t>
+  </si>
+  <si>
+    <t>023.370.064-17</t>
+  </si>
+  <si>
+    <t>1006540 SSP.PB</t>
+  </si>
+  <si>
+    <t>MARIA LUCENILZA NASCIMENTO DE OLIVEIRA</t>
+  </si>
+  <si>
+    <t>07/05/19992</t>
+  </si>
+  <si>
+    <t>2832356-4</t>
+  </si>
+  <si>
+    <t>WALTER DA SILVA NASCIMENTO</t>
+  </si>
+  <si>
+    <t>445.491.132-00</t>
+  </si>
+  <si>
+    <t>EDSON CLAUDINO SILVA FILHO</t>
+  </si>
+  <si>
+    <t>061.174.724-39</t>
+  </si>
+  <si>
+    <t>ANTONIO JUCINEY SILVA MACIEL</t>
+  </si>
+  <si>
+    <t>1953533-3</t>
+  </si>
+  <si>
+    <t>LUIZA DA COSTA</t>
+  </si>
+  <si>
     <t xml:space="preserve">ANIVERSARIANTES DO MÊS </t>
+  </si>
+  <si>
+    <t>2857101 DF</t>
+  </si>
+  <si>
+    <t>628.217.682-49</t>
+  </si>
+  <si>
+    <t>JANAINA BRITO DA SILVA DE AQUINO</t>
+  </si>
+  <si>
+    <t>173374-8</t>
+  </si>
+  <si>
+    <t>693985261-15</t>
+  </si>
+  <si>
+    <t>029.539.713-60</t>
+  </si>
+  <si>
+    <t>MARCELIANE  TEIXEIRA</t>
+  </si>
+  <si>
+    <t>002.155.882-58</t>
+  </si>
+  <si>
+    <t>87.97.73.2</t>
+  </si>
+  <si>
+    <t>MAURICIO MESQUITA DE SOUSA</t>
+  </si>
+  <si>
+    <t>JANAINA JAMILA SANTOS</t>
+  </si>
+  <si>
+    <t>739.413.792-91</t>
+  </si>
+  <si>
+    <t>35.92.560-4</t>
+  </si>
+  <si>
+    <t>24.10.076-5</t>
+  </si>
+  <si>
+    <t>022.788.342-07</t>
+  </si>
+  <si>
+    <t>PEDRO HENRIQUE SANTOS</t>
+  </si>
+  <si>
+    <t>096.991.054-10</t>
+  </si>
+  <si>
+    <t>31.88.858-5</t>
+  </si>
+  <si>
+    <t>568.732.552-20</t>
+  </si>
+  <si>
+    <t>LILIANE FONSECA ARRUDA</t>
+  </si>
+  <si>
+    <t>583.248.282-49</t>
+  </si>
+  <si>
+    <t>PAULO RONALDO DOS SANTOS</t>
+  </si>
+  <si>
+    <t>452.981.900.06</t>
+  </si>
+  <si>
+    <t>LUIZ AUGUSTO TEIXEIRA</t>
+  </si>
+  <si>
+    <t>56.68.7463-5</t>
+  </si>
+  <si>
+    <t>485.387.338-42</t>
+  </si>
+  <si>
+    <t>LUANA TEIXEIRA FACCO</t>
+  </si>
+  <si>
+    <t>65.14.7439-5</t>
+  </si>
+  <si>
+    <t>552.073.848-30</t>
+  </si>
+  <si>
+    <t>PRISCILLA LORENA SILVA</t>
+  </si>
+  <si>
+    <t>954.007.532-72</t>
+  </si>
+  <si>
+    <t>ELISABETH VALEIKO DO CARMO RIBEIRO</t>
+  </si>
+  <si>
+    <t>154.982.477-53</t>
+  </si>
+  <si>
+    <t>929.091.597-87</t>
+  </si>
+  <si>
+    <t>ELISSANDRO DE JESUS DE SOUZA MELO</t>
+  </si>
+  <si>
+    <t>601.333.332-72</t>
+  </si>
+  <si>
+    <t>BERNADETE COSTA MELO</t>
+  </si>
+  <si>
+    <t>0897128-5</t>
+  </si>
+  <si>
+    <t>308026952-72</t>
+  </si>
+  <si>
+    <t>ARTHUR VIRGILIO DO CARMO RIBEIRO BISNETO</t>
+  </si>
+  <si>
+    <t>ARTHUR VIRGILIO DO CARMO RIBEIRO NETO</t>
+  </si>
+  <si>
+    <t>1779689-0</t>
+  </si>
+  <si>
+    <t>642.642.462-53</t>
+  </si>
+  <si>
+    <t>ADEILDO JOSÉ DA SILVA</t>
+  </si>
+  <si>
+    <t>SANDRA AlVES PINHEIRO SILVA ( esp. Pr. Adeildo)</t>
+  </si>
+  <si>
+    <t>897.866.611-68</t>
+  </si>
+  <si>
+    <t>MARCOS CASTILHO CRUZ</t>
+  </si>
+  <si>
+    <t>013.004.168-82</t>
+  </si>
+  <si>
+    <t>RICARDO DE MORAES</t>
+  </si>
+  <si>
+    <t>296.534,508-67</t>
+  </si>
+  <si>
+    <t>NUB WEESTER LOPES DE SOUSA</t>
+  </si>
+  <si>
+    <t>345.154.292-72</t>
+  </si>
+  <si>
+    <t>SHERIDAN OLIVEIRA</t>
+  </si>
+  <si>
+    <t>750.961.022-20</t>
+  </si>
+  <si>
+    <t>EDSON DE SANTANA</t>
+  </si>
+  <si>
+    <t>026.300.012-53</t>
+  </si>
+  <si>
+    <t>EURINETE DE SANTANA</t>
+  </si>
+  <si>
+    <t>068.433.442-91</t>
+  </si>
+  <si>
+    <t>774.620.921-15</t>
+  </si>
+  <si>
+    <t>636.646.152-04</t>
+  </si>
+  <si>
+    <t>ANA LUISA DE JESUS MACIEL ( filha Juciney)</t>
+  </si>
+  <si>
+    <t>CAMILA DE JESUS MACIEL ( filha Juciney)</t>
+  </si>
+  <si>
+    <t>850.978.292-04</t>
+  </si>
+  <si>
+    <t>JEFFERSON RIBEIRO DOS SANTOS</t>
+  </si>
+  <si>
+    <t>646.270.202-87</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> DONIZETE VILELA</t>
+  </si>
+  <si>
+    <t>529.527.709-72</t>
+  </si>
+  <si>
+    <t>ANNE CAROLINNE VALEIKO BRAGA ( filha Elisabeth)</t>
+  </si>
+  <si>
+    <t>788.576.222-72</t>
   </si>
   <si>
     <t>NOME</t>
@@ -1317,8 +2046,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F138"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A108" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B117" sqref="B117"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A112" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B122" sqref="B122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1332,7 +2061,7 @@
   <sheetData>
     <row r="1" spans="1:4" s="41" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="30" t="s">
-        <v>107</v>
+        <v>350</v>
       </c>
       <c r="B1" s="40" t="s">
         <v>1</v>
@@ -1345,742 +2074,1612 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="22"/>
-      <c r="B2" s="24"/>
+      <c r="A2" s="22" t="s">
+        <v>324</v>
+      </c>
+      <c r="B2" s="24">
+        <v>28056</v>
+      </c>
       <c r="C2" s="22"/>
-      <c r="D2" s="42"/>
+      <c r="D2" s="42" t="s">
+        <v>339</v>
+      </c>
     </row>
     <row r="3" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="22"/>
-      <c r="B3" s="24"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
+      <c r="A3" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3" s="24">
+        <v>33969</v>
+      </c>
+      <c r="C3" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="D3" s="22" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="4" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="22"/>
+      <c r="A4" s="22" t="s">
+        <v>46</v>
+      </c>
       <c r="B4" s="24"/>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22"/>
+      <c r="C4" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="D4" s="22" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="5" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="22"/>
-      <c r="B5" s="24"/>
-      <c r="C5" s="22"/>
-      <c r="D5" s="22"/>
+      <c r="A5" s="22" t="s">
+        <v>341</v>
+      </c>
+      <c r="B5" s="24">
+        <v>39344</v>
+      </c>
+      <c r="C5" s="22" t="s">
+        <v>289</v>
+      </c>
+      <c r="D5" s="22" t="s">
+        <v>193</v>
+      </c>
     </row>
     <row r="6" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="22"/>
-      <c r="B6" s="24"/>
-      <c r="C6" s="22"/>
-      <c r="D6" s="22"/>
+      <c r="A6" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="24">
+        <v>29469</v>
+      </c>
+      <c r="C6" s="22" t="s">
+        <v>110</v>
+      </c>
+      <c r="D6" s="22" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="7" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="22"/>
-      <c r="B7" s="24"/>
-      <c r="C7" s="22"/>
+      <c r="A7" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="24">
+        <v>36521</v>
+      </c>
+      <c r="C7" s="22" t="s">
+        <v>111</v>
+      </c>
       <c r="D7" s="22"/>
     </row>
     <row r="8" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="22"/>
-      <c r="B8" s="24"/>
-      <c r="C8" s="22"/>
-      <c r="D8" s="22"/>
+      <c r="A8" s="22" t="s">
+        <v>277</v>
+      </c>
+      <c r="B8" s="24">
+        <v>31689</v>
+      </c>
+      <c r="C8" s="22" t="s">
+        <v>278</v>
+      </c>
+      <c r="D8" s="22" t="s">
+        <v>343</v>
+      </c>
     </row>
     <row r="9" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="22"/>
-      <c r="B9" s="24"/>
-      <c r="C9" s="25"/>
-      <c r="D9" s="22"/>
+      <c r="A9" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="B9" s="24">
+        <v>25790</v>
+      </c>
+      <c r="C9" s="25" t="s">
+        <v>112</v>
+      </c>
+      <c r="D9" s="22" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="10" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="22"/>
-      <c r="B10" s="24"/>
-      <c r="C10" s="22"/>
+      <c r="A10" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="B10" s="24">
+        <v>36840</v>
+      </c>
+      <c r="C10" s="22" t="s">
+        <v>113</v>
+      </c>
       <c r="D10" s="22"/>
     </row>
     <row r="11" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A11" s="22"/>
-      <c r="B11" s="24"/>
-      <c r="C11" s="22"/>
-      <c r="D11" s="22"/>
+      <c r="A11" s="22" t="s">
+        <v>348</v>
+      </c>
+      <c r="B11" s="24">
+        <v>36166</v>
+      </c>
+      <c r="C11" s="22">
+        <v>22553177</v>
+      </c>
+      <c r="D11" s="22" t="s">
+        <v>349</v>
+      </c>
     </row>
     <row r="12" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A12" s="22"/>
-      <c r="B12" s="24"/>
-      <c r="C12" s="22"/>
-      <c r="D12" s="22"/>
+      <c r="A12" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="B12" s="24">
+        <v>30582</v>
+      </c>
+      <c r="C12" s="22" t="s">
+        <v>114</v>
+      </c>
+      <c r="D12" s="22" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="13" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A13" s="22"/>
+      <c r="A13" s="22" t="s">
+        <v>64</v>
+      </c>
       <c r="B13" s="24"/>
-      <c r="C13" s="22"/>
-      <c r="D13" s="22"/>
+      <c r="C13" s="22" t="s">
+        <v>115</v>
+      </c>
+      <c r="D13" s="22" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="14" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A14" s="22"/>
-      <c r="B14" s="24"/>
-      <c r="C14" s="22"/>
-      <c r="D14" s="22"/>
+      <c r="A14" s="22" t="s">
+        <v>320</v>
+      </c>
+      <c r="B14" s="24">
+        <v>29129</v>
+      </c>
+      <c r="C14" s="22" t="s">
+        <v>322</v>
+      </c>
+      <c r="D14" s="22" t="s">
+        <v>323</v>
+      </c>
     </row>
     <row r="15" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A15" s="38"/>
-      <c r="B15" s="24"/>
+      <c r="A15" s="38" t="s">
+        <v>321</v>
+      </c>
+      <c r="B15" s="24">
+        <v>16756</v>
+      </c>
       <c r="C15" s="22"/>
-      <c r="D15" s="38"/>
+      <c r="D15" s="38" t="s">
+        <v>313</v>
+      </c>
     </row>
     <row r="16" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A16" s="22"/>
-      <c r="B16" s="24"/>
-      <c r="C16" s="22"/>
-      <c r="D16" s="22"/>
+      <c r="A16" s="22" t="s">
+        <v>317</v>
+      </c>
+      <c r="B16" s="24">
+        <v>24926</v>
+      </c>
+      <c r="C16" s="22" t="s">
+        <v>318</v>
+      </c>
+      <c r="D16" s="22" t="s">
+        <v>319</v>
+      </c>
     </row>
     <row r="17" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A17" s="22"/>
+      <c r="A17" s="22" t="s">
+        <v>54</v>
+      </c>
       <c r="B17" s="24"/>
-      <c r="C17" s="22"/>
+      <c r="C17" s="22" t="s">
+        <v>116</v>
+      </c>
       <c r="D17" s="22"/>
     </row>
     <row r="18" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A18" s="22"/>
-      <c r="B18" s="24"/>
-      <c r="C18" s="22"/>
-      <c r="D18" s="22"/>
+      <c r="A18" s="22" t="s">
+        <v>342</v>
+      </c>
+      <c r="B18" s="24">
+        <v>41212</v>
+      </c>
+      <c r="C18" s="22">
+        <v>8797731</v>
+      </c>
+      <c r="D18" s="22" t="s">
+        <v>191</v>
+      </c>
     </row>
     <row r="19" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A19" s="22"/>
-      <c r="B19" s="24"/>
-      <c r="C19" s="22"/>
-      <c r="D19" s="22"/>
+      <c r="A19" s="22" t="s">
+        <v>221</v>
+      </c>
+      <c r="B19" s="24">
+        <v>22195</v>
+      </c>
+      <c r="C19" s="22">
+        <v>3014585891</v>
+      </c>
+      <c r="D19" s="22" t="s">
+        <v>222</v>
+      </c>
     </row>
     <row r="20" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A20" s="22"/>
-      <c r="B20" s="24"/>
-      <c r="C20" s="22"/>
-      <c r="D20" s="22"/>
+      <c r="A20" s="22" t="s">
+        <v>173</v>
+      </c>
+      <c r="B20" s="24">
+        <v>19120</v>
+      </c>
+      <c r="C20" s="22">
+        <v>516828</v>
+      </c>
+      <c r="D20" s="22" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="21" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A21" s="22"/>
-      <c r="B21" s="24"/>
-      <c r="C21" s="22"/>
-      <c r="D21" s="37"/>
+      <c r="A21" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" s="22" t="s">
+        <v>117</v>
+      </c>
+      <c r="D21" s="37" t="s">
+        <v>168</v>
+      </c>
     </row>
     <row r="22" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A22" s="22"/>
-      <c r="B22" s="24"/>
-      <c r="C22" s="22"/>
-      <c r="D22" s="22"/>
+      <c r="A22" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="B22" s="24">
+        <v>26047</v>
+      </c>
+      <c r="C22" s="22" t="s">
+        <v>118</v>
+      </c>
+      <c r="D22" s="22" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="23" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A23" s="22"/>
-      <c r="B23" s="24"/>
-      <c r="C23" s="22"/>
-      <c r="D23" s="22"/>
+      <c r="A23" s="22" t="s">
+        <v>97</v>
+      </c>
+      <c r="B23" s="24">
+        <v>28448</v>
+      </c>
+      <c r="C23" s="22" t="s">
+        <v>119</v>
+      </c>
+      <c r="D23" s="22" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="24" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A24" s="22"/>
-      <c r="B24" s="24"/>
-      <c r="C24" s="22"/>
+      <c r="A24" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="B24" s="24">
+        <v>31495</v>
+      </c>
+      <c r="C24" s="22" t="s">
+        <v>120</v>
+      </c>
       <c r="D24" s="22"/>
     </row>
     <row r="25" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A25" s="22"/>
-      <c r="B25" s="24"/>
-      <c r="C25" s="22"/>
-      <c r="D25" s="22"/>
+      <c r="A25" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="B25" s="24">
+        <v>22671</v>
+      </c>
+      <c r="C25" s="22" t="s">
+        <v>121</v>
+      </c>
+      <c r="D25" s="22" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="26" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A26" s="22"/>
-      <c r="B26" s="24"/>
+      <c r="A26" s="22" t="s">
+        <v>346</v>
+      </c>
+      <c r="B26" s="24">
+        <v>24006</v>
+      </c>
       <c r="C26" s="22"/>
-      <c r="D26" s="22"/>
+      <c r="D26" s="22" t="s">
+        <v>347</v>
+      </c>
     </row>
     <row r="27" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A27" s="22"/>
-      <c r="B27" s="24"/>
-      <c r="C27" s="22"/>
-      <c r="D27" s="22"/>
+      <c r="A27" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="B27" s="24">
+        <v>27168</v>
+      </c>
+      <c r="C27" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="D27" s="22" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="28" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A28" s="22"/>
-      <c r="B28" s="24"/>
-      <c r="C28" s="22"/>
-      <c r="D28" s="22"/>
+      <c r="A28" s="22" t="s">
+        <v>101</v>
+      </c>
+      <c r="B28" s="24">
+        <v>23961</v>
+      </c>
+      <c r="C28" s="22" t="s">
+        <v>153</v>
+      </c>
+      <c r="D28" s="22" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="29" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A29" s="22"/>
-      <c r="B29" s="24"/>
-      <c r="C29" s="22"/>
-      <c r="D29" s="22"/>
+      <c r="A29" s="22" t="s">
+        <v>275</v>
+      </c>
+      <c r="B29" s="24">
+        <v>31196</v>
+      </c>
+      <c r="C29" s="22">
+        <v>7030937</v>
+      </c>
+      <c r="D29" s="22" t="s">
+        <v>276</v>
+      </c>
     </row>
     <row r="30" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A30" s="22"/>
-      <c r="B30" s="24"/>
+      <c r="A30" s="22" t="s">
+        <v>335</v>
+      </c>
+      <c r="B30" s="24">
+        <v>18483</v>
+      </c>
       <c r="C30" s="22"/>
-      <c r="D30" s="22"/>
+      <c r="D30" s="22" t="s">
+        <v>336</v>
+      </c>
     </row>
     <row r="31" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A31" s="22"/>
-      <c r="B31" s="24"/>
-      <c r="C31" s="22"/>
+      <c r="A31" s="22" t="s">
+        <v>94</v>
+      </c>
+      <c r="B31" s="24">
+        <v>42986</v>
+      </c>
+      <c r="C31" s="22" t="s">
+        <v>47</v>
+      </c>
       <c r="D31" s="22"/>
     </row>
     <row r="32" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A32" s="22"/>
-      <c r="B32" s="24"/>
-      <c r="C32" s="22"/>
-      <c r="D32" s="22"/>
+      <c r="A32" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="B32" s="24">
+        <v>28653</v>
+      </c>
+      <c r="C32" s="22" t="s">
+        <v>159</v>
+      </c>
+      <c r="D32" s="22" t="s">
+        <v>158</v>
+      </c>
     </row>
     <row r="33" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A33" s="38"/>
-      <c r="B33" s="24"/>
+      <c r="A33" s="38" t="s">
+        <v>312</v>
+      </c>
+      <c r="B33" s="24">
+        <v>24024</v>
+      </c>
       <c r="C33" s="22"/>
-      <c r="D33" s="38"/>
+      <c r="D33" s="38" t="s">
+        <v>314</v>
+      </c>
     </row>
     <row r="34" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A34" s="22"/>
-      <c r="B34" s="24"/>
-      <c r="C34" s="22"/>
-      <c r="D34" s="22"/>
+      <c r="A34" s="22" t="s">
+        <v>315</v>
+      </c>
+      <c r="B34" s="24">
+        <v>28484</v>
+      </c>
+      <c r="C34" s="22">
+        <v>298636</v>
+      </c>
+      <c r="D34" s="22" t="s">
+        <v>316</v>
+      </c>
     </row>
     <row r="35" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A35" s="22"/>
-      <c r="B35" s="24"/>
-      <c r="C35" s="22"/>
-      <c r="D35" s="22"/>
+      <c r="A35" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="B35" s="24">
+        <v>32799</v>
+      </c>
+      <c r="C35" s="22" t="s">
+        <v>123</v>
+      </c>
+      <c r="D35" s="22" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="36" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A36" s="22"/>
-      <c r="B36" s="24"/>
-      <c r="C36" s="22"/>
+      <c r="A36" s="22" t="s">
+        <v>198</v>
+      </c>
+      <c r="B36" s="24">
+        <v>29995</v>
+      </c>
+      <c r="C36" s="22" t="s">
+        <v>199</v>
+      </c>
       <c r="D36" s="22"/>
     </row>
     <row r="37" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A37" s="22"/>
-      <c r="B37" s="26"/>
-      <c r="C37" s="22"/>
-      <c r="D37" s="22"/>
+      <c r="A37" s="22" t="s">
+        <v>171</v>
+      </c>
+      <c r="B37" s="26">
+        <v>28962</v>
+      </c>
+      <c r="C37" s="22" t="s">
+        <v>170</v>
+      </c>
+      <c r="D37" s="22" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="38" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A38" s="22"/>
-      <c r="B38" s="24"/>
+      <c r="A38" s="22" t="s">
+        <v>337</v>
+      </c>
+      <c r="B38" s="24">
+        <v>19680</v>
+      </c>
       <c r="C38" s="22"/>
-      <c r="D38" s="22"/>
+      <c r="D38" s="22" t="s">
+        <v>338</v>
+      </c>
     </row>
     <row r="39" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A39" s="22"/>
-      <c r="B39" s="24"/>
-      <c r="C39" s="22"/>
-      <c r="D39" s="22"/>
+      <c r="A39" s="22" t="s">
+        <v>210</v>
+      </c>
+      <c r="B39" s="24">
+        <v>28323</v>
+      </c>
+      <c r="C39" s="22">
+        <v>11480994</v>
+      </c>
+      <c r="D39" s="22" t="s">
+        <v>211</v>
+      </c>
     </row>
     <row r="40" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A40" s="22"/>
-      <c r="B40" s="24"/>
-      <c r="C40" s="22"/>
-      <c r="D40" s="22"/>
+      <c r="A40" s="22" t="s">
+        <v>183</v>
+      </c>
+      <c r="B40" s="24">
+        <v>25028</v>
+      </c>
+      <c r="C40" s="22">
+        <v>101287</v>
+      </c>
+      <c r="D40" s="22" t="s">
+        <v>184</v>
+      </c>
     </row>
     <row r="41" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A41" s="22"/>
-      <c r="B41" s="24"/>
-      <c r="C41" s="22"/>
-      <c r="D41" s="22"/>
+      <c r="A41" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="B41" s="24">
+        <v>37088</v>
+      </c>
+      <c r="C41" s="22" t="s">
+        <v>124</v>
+      </c>
+      <c r="D41" s="22" t="s">
+        <v>295</v>
+      </c>
     </row>
     <row r="42" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A42" s="22"/>
-      <c r="B42" s="24"/>
-      <c r="C42" s="22"/>
-      <c r="D42" s="22"/>
+      <c r="A42" s="22" t="s">
+        <v>217</v>
+      </c>
+      <c r="B42" s="24">
+        <v>35445</v>
+      </c>
+      <c r="C42" s="22">
+        <v>9114900922</v>
+      </c>
+      <c r="D42" s="22" t="s">
+        <v>218</v>
+      </c>
     </row>
     <row r="43" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A43" s="22"/>
-      <c r="B43" s="24"/>
-      <c r="C43" s="22"/>
-      <c r="D43" s="22"/>
+      <c r="A43" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="B43" s="24">
+        <v>37660</v>
+      </c>
+      <c r="C43" s="22" t="s">
+        <v>125</v>
+      </c>
+      <c r="D43" s="22" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="44" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A44" s="22"/>
-      <c r="B44" s="24"/>
-      <c r="C44" s="22"/>
-      <c r="D44" s="22"/>
+      <c r="A44" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="B44" s="24">
+        <v>36794</v>
+      </c>
+      <c r="C44" s="22" t="s">
+        <v>126</v>
+      </c>
+      <c r="D44" s="22" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="45" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A45" s="23"/>
-      <c r="B45" s="27"/>
-      <c r="C45" s="23"/>
-      <c r="D45" s="22"/>
+      <c r="A45" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="B45" s="27">
+        <v>27003</v>
+      </c>
+      <c r="C45" s="23" t="s">
+        <v>127</v>
+      </c>
+      <c r="D45" s="22" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="46" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A46" s="23"/>
-      <c r="B46" s="27"/>
-      <c r="C46" s="23"/>
-      <c r="D46" s="22"/>
+      <c r="A46" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="B46" s="27">
+        <v>32946</v>
+      </c>
+      <c r="C46" s="23" t="s">
+        <v>128</v>
+      </c>
+      <c r="D46" s="22" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="47" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A47" s="22"/>
-      <c r="B47" s="24"/>
-      <c r="C47" s="22"/>
-      <c r="D47" s="22"/>
+      <c r="A47" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="B47" s="24">
+        <v>35725</v>
+      </c>
+      <c r="C47" s="22" t="s">
+        <v>155</v>
+      </c>
+      <c r="D47" s="22" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="48" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A48" s="22"/>
-      <c r="B48" s="24"/>
+      <c r="A48" s="22" t="s">
+        <v>188</v>
+      </c>
+      <c r="B48" s="24">
+        <v>27887</v>
+      </c>
       <c r="C48" s="22"/>
-      <c r="D48" s="22"/>
+      <c r="D48" s="22" t="s">
+        <v>189</v>
+      </c>
     </row>
     <row r="49" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A49" s="22"/>
+      <c r="A49" s="22" t="s">
+        <v>283</v>
+      </c>
       <c r="B49" s="24"/>
-      <c r="C49" s="22"/>
-      <c r="D49" s="22"/>
+      <c r="C49" s="22" t="s">
+        <v>284</v>
+      </c>
+      <c r="D49" s="22" t="s">
+        <v>285</v>
+      </c>
     </row>
     <row r="50" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A50" s="22"/>
-      <c r="B50" s="24"/>
-      <c r="C50" s="22"/>
-      <c r="D50" s="22"/>
+      <c r="A50" s="22" t="s">
+        <v>178</v>
+      </c>
+      <c r="B50" s="24">
+        <v>26870</v>
+      </c>
+      <c r="C50" s="22" t="s">
+        <v>180</v>
+      </c>
+      <c r="D50" s="22" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="51" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A51" s="22"/>
-      <c r="B51" s="24"/>
-      <c r="C51" s="22"/>
-      <c r="D51" s="22"/>
+      <c r="A51" s="22" t="s">
+        <v>291</v>
+      </c>
+      <c r="B51" s="24">
+        <v>30566</v>
+      </c>
+      <c r="C51" s="22" t="s">
+        <v>293</v>
+      </c>
+      <c r="D51" s="22" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="52" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A52" s="22"/>
-      <c r="B52" s="24"/>
-      <c r="C52" s="22"/>
-      <c r="D52" s="22"/>
+      <c r="A52" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="B52" s="24">
+        <v>36909</v>
+      </c>
+      <c r="C52" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="D52" s="22" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="53" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A53" s="22"/>
-      <c r="B53" s="24"/>
+      <c r="A53" s="22" t="s">
+        <v>344</v>
+      </c>
+      <c r="B53" s="24">
+        <v>29427</v>
+      </c>
       <c r="C53" s="22"/>
-      <c r="D53" s="22"/>
+      <c r="D53" s="22" t="s">
+        <v>345</v>
+      </c>
     </row>
     <row r="54" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A54" s="22"/>
-      <c r="B54" s="24"/>
-      <c r="C54" s="22"/>
-      <c r="D54" s="22"/>
+      <c r="A54" s="22" t="s">
+        <v>175</v>
+      </c>
+      <c r="B54" s="24">
+        <v>20436</v>
+      </c>
+      <c r="C54" s="22" t="s">
+        <v>176</v>
+      </c>
+      <c r="D54" s="22" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="55" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A55" s="22"/>
+      <c r="A55" s="22" t="s">
+        <v>53</v>
+      </c>
       <c r="B55" s="24"/>
-      <c r="C55" s="22"/>
+      <c r="C55" s="22" t="s">
+        <v>130</v>
+      </c>
       <c r="D55" s="22"/>
     </row>
     <row r="56" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A56" s="22"/>
-      <c r="B56" s="24"/>
-      <c r="C56" s="22"/>
-      <c r="D56" s="22"/>
+      <c r="A56" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="B56" s="24">
+        <v>27945</v>
+      </c>
+      <c r="C56" s="22" t="s">
+        <v>131</v>
+      </c>
+      <c r="D56" s="22" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="57" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A57" s="22"/>
-      <c r="B57" s="24"/>
-      <c r="C57" s="22"/>
-      <c r="D57" s="22"/>
+      <c r="A57" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="B57" s="24">
+        <v>22027</v>
+      </c>
+      <c r="C57" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="D57" s="22" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="58" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A58" s="22"/>
-      <c r="B58" s="24"/>
-      <c r="C58" s="22"/>
-      <c r="D58" s="22"/>
+      <c r="A58" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="B58" s="24">
+        <v>34946</v>
+      </c>
+      <c r="C58" s="22" t="s">
+        <v>133</v>
+      </c>
+      <c r="D58" s="22" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="59" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A59" s="22"/>
-      <c r="B59" s="24"/>
-      <c r="C59" s="22"/>
-      <c r="D59" s="22"/>
+      <c r="A59" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="B59" s="24">
+        <v>29858</v>
+      </c>
+      <c r="C59" s="22" t="s">
+        <v>163</v>
+      </c>
+      <c r="D59" s="22" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="60" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A60" s="22"/>
-      <c r="B60" s="24"/>
-      <c r="C60" s="22"/>
-      <c r="D60" s="22"/>
+      <c r="A60" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="B60" s="24">
+        <v>27404</v>
+      </c>
+      <c r="C60" s="22" t="s">
+        <v>134</v>
+      </c>
+      <c r="D60" s="22" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="61" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A61" s="22"/>
-      <c r="B61" s="24"/>
-      <c r="C61" s="22"/>
+      <c r="A61" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="B61" s="24">
+        <v>39801</v>
+      </c>
+      <c r="C61" s="22" t="s">
+        <v>182</v>
+      </c>
       <c r="D61" s="22"/>
     </row>
     <row r="62" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A62" s="22"/>
-      <c r="B62" s="24"/>
-      <c r="C62" s="22"/>
+      <c r="A62" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="B62" s="24">
+        <v>31397</v>
+      </c>
+      <c r="C62" s="22" t="s">
+        <v>77</v>
+      </c>
       <c r="D62" s="22"/>
     </row>
     <row r="63" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A63" s="22"/>
-      <c r="B63" s="24"/>
+      <c r="A63" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="B63" s="24">
+        <v>32131</v>
+      </c>
       <c r="C63" s="22"/>
-      <c r="D63" s="22"/>
+      <c r="D63" s="22" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="64" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A64" s="22"/>
-      <c r="B64" s="24"/>
-      <c r="C64" s="22"/>
-      <c r="D64" s="22"/>
+      <c r="A64" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="B64" s="24">
+        <v>38760</v>
+      </c>
+      <c r="C64" s="22" t="s">
+        <v>135</v>
+      </c>
+      <c r="D64" s="22" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="65" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A65" s="22"/>
-      <c r="B65" s="24"/>
-      <c r="C65" s="22"/>
-      <c r="D65" s="22"/>
+      <c r="A65" s="22" t="s">
+        <v>203</v>
+      </c>
+      <c r="B65" s="24">
+        <v>33196</v>
+      </c>
+      <c r="C65" s="22" t="s">
+        <v>294</v>
+      </c>
+      <c r="D65" s="22" t="s">
+        <v>204</v>
+      </c>
     </row>
     <row r="66" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A66" s="22"/>
-      <c r="B66" s="24"/>
-      <c r="C66" s="28"/>
-      <c r="D66" s="22"/>
+      <c r="A66" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="B66" s="24">
+        <v>27849</v>
+      </c>
+      <c r="C66" s="28" t="s">
+        <v>136</v>
+      </c>
+      <c r="D66" s="22" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="67" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A67" s="22"/>
-      <c r="B67" s="24"/>
-      <c r="C67" s="22"/>
-      <c r="D67" s="22"/>
+      <c r="A67" s="22" t="s">
+        <v>195</v>
+      </c>
+      <c r="B67" s="24">
+        <v>35654</v>
+      </c>
+      <c r="C67" s="22" t="s">
+        <v>196</v>
+      </c>
+      <c r="D67" s="22" t="s">
+        <v>197</v>
+      </c>
     </row>
     <row r="68" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A68" s="22"/>
-      <c r="B68" s="24"/>
+      <c r="A68" s="22" t="s">
+        <v>300</v>
+      </c>
+      <c r="B68" s="24">
+        <v>26211</v>
+      </c>
       <c r="C68" s="22"/>
-      <c r="D68" s="22"/>
+      <c r="D68" s="22" t="s">
+        <v>301</v>
+      </c>
     </row>
     <row r="69" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A69" s="22"/>
-      <c r="B69" s="24"/>
-      <c r="C69" s="22"/>
-      <c r="D69" s="22"/>
+      <c r="A69" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="B69" s="24">
+        <v>28119</v>
+      </c>
+      <c r="C69" s="22" t="s">
+        <v>137</v>
+      </c>
+      <c r="D69" s="22" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="70" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A70" s="22"/>
-      <c r="B70" s="24"/>
-      <c r="C70" s="22"/>
-      <c r="D70" s="22"/>
+      <c r="A70" s="22" t="s">
+        <v>307</v>
+      </c>
+      <c r="B70" s="24">
+        <v>41527</v>
+      </c>
+      <c r="C70" s="22" t="s">
+        <v>308</v>
+      </c>
+      <c r="D70" s="22" t="s">
+        <v>309</v>
+      </c>
     </row>
     <row r="71" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A71" s="22"/>
-      <c r="B71" s="24"/>
-      <c r="C71" s="22"/>
-      <c r="D71" s="22"/>
+      <c r="A71" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="B71" s="24">
+        <v>33118</v>
+      </c>
+      <c r="C71" s="22" t="s">
+        <v>138</v>
+      </c>
+      <c r="D71" s="22" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="72" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A72" s="22"/>
+      <c r="A72" s="22" t="s">
+        <v>304</v>
+      </c>
       <c r="B72" s="24"/>
-      <c r="C72" s="22"/>
-      <c r="D72" s="22"/>
+      <c r="C72" s="22" t="s">
+        <v>305</v>
+      </c>
+      <c r="D72" s="22" t="s">
+        <v>306</v>
+      </c>
     </row>
     <row r="73" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A73" s="22"/>
-      <c r="B73" s="24"/>
-      <c r="C73" s="22"/>
+      <c r="A73" s="22" t="s">
+        <v>279</v>
+      </c>
+      <c r="B73" s="24">
+        <v>15810</v>
+      </c>
+      <c r="C73" s="22">
+        <v>300387</v>
+      </c>
       <c r="D73" s="22"/>
     </row>
     <row r="74" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A74" s="22"/>
-      <c r="B74" s="24"/>
-      <c r="C74" s="22"/>
-      <c r="D74" s="22"/>
+      <c r="A74" s="22" t="s">
+        <v>287</v>
+      </c>
+      <c r="B74" s="24">
+        <v>32603</v>
+      </c>
+      <c r="C74" s="22">
+        <v>590292365</v>
+      </c>
+      <c r="D74" s="22" t="s">
+        <v>286</v>
+      </c>
     </row>
     <row r="75" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A75" s="22"/>
-      <c r="B75" s="24"/>
-      <c r="C75" s="22"/>
+      <c r="A75" s="22" t="s">
+        <v>205</v>
+      </c>
+      <c r="B75" s="24">
+        <v>31524</v>
+      </c>
+      <c r="C75" s="22">
+        <v>5947504</v>
+      </c>
       <c r="D75" s="22"/>
     </row>
     <row r="76" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A76" s="22"/>
-      <c r="B76" s="24"/>
-      <c r="C76" s="22"/>
-      <c r="D76" s="22"/>
+      <c r="A76" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="B76" s="24">
+        <v>28403</v>
+      </c>
+      <c r="C76" s="22" t="s">
+        <v>139</v>
+      </c>
+      <c r="D76" s="22" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="77" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A77" s="22"/>
-      <c r="B77" s="24"/>
+      <c r="A77" s="22" t="s">
+        <v>327</v>
+      </c>
+      <c r="B77" s="24">
+        <v>22366</v>
+      </c>
       <c r="C77" s="22"/>
-      <c r="D77" s="22"/>
+      <c r="D77" s="22" t="s">
+        <v>328</v>
+      </c>
     </row>
     <row r="78" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A78" s="22"/>
-      <c r="B78" s="24"/>
-      <c r="C78" s="22"/>
-      <c r="D78" s="22"/>
+      <c r="A78" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="B78" s="24">
+        <v>22262</v>
+      </c>
+      <c r="C78" s="22" t="s">
+        <v>140</v>
+      </c>
+      <c r="D78" s="22" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="79" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A79" s="23"/>
-      <c r="B79" s="27"/>
-      <c r="C79" s="23"/>
-      <c r="D79" s="22"/>
+      <c r="A79" s="23" t="s">
+        <v>160</v>
+      </c>
+      <c r="B79" s="27">
+        <v>24630</v>
+      </c>
+      <c r="C79" s="23" t="s">
+        <v>161</v>
+      </c>
+      <c r="D79" s="22" t="s">
+        <v>162</v>
+      </c>
     </row>
     <row r="80" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A80" s="22"/>
-      <c r="B80" s="24"/>
-      <c r="C80" s="22"/>
-      <c r="D80" s="22"/>
+      <c r="A80" s="22" t="s">
+        <v>214</v>
+      </c>
+      <c r="B80" s="24">
+        <v>15723</v>
+      </c>
+      <c r="C80" s="22" t="s">
+        <v>215</v>
+      </c>
+      <c r="D80" s="22" t="s">
+        <v>216</v>
+      </c>
     </row>
     <row r="81" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A81" s="22"/>
-      <c r="B81" s="24"/>
-      <c r="C81" s="22"/>
-      <c r="D81" s="22"/>
+      <c r="A81" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="B81" s="24">
+        <v>42277</v>
+      </c>
+      <c r="C81" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="D81" s="22" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="82" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A82" s="22"/>
-      <c r="B82" s="24"/>
-      <c r="C82" s="22"/>
-      <c r="D82" s="22"/>
+      <c r="A82" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="B82" s="24">
+        <v>39692</v>
+      </c>
+      <c r="C82" s="22" t="s">
+        <v>141</v>
+      </c>
+      <c r="D82" s="22" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="83" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A83" s="22"/>
-      <c r="B83" s="24"/>
-      <c r="C83" s="22"/>
-      <c r="D83" s="22"/>
+      <c r="A83" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="B83" s="24">
+        <v>28732</v>
+      </c>
+      <c r="C83" s="22" t="s">
+        <v>281</v>
+      </c>
+      <c r="D83" s="22" t="s">
+        <v>282</v>
+      </c>
     </row>
     <row r="84" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A84" s="22"/>
-      <c r="B84" s="24"/>
-      <c r="C84" s="22"/>
-      <c r="D84" s="22"/>
+      <c r="A84" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="B84" s="24">
+        <v>36526</v>
+      </c>
+      <c r="C84" s="22" t="s">
+        <v>142</v>
+      </c>
+      <c r="D84" s="22" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="85" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A85" s="22"/>
-      <c r="B85" s="24"/>
-      <c r="C85" s="22"/>
-      <c r="D85" s="22"/>
+      <c r="A85" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="B85" s="24">
+        <v>37681</v>
+      </c>
+      <c r="C85" s="22" t="s">
+        <v>143</v>
+      </c>
+      <c r="D85" s="22" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="86" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A86" s="22"/>
-      <c r="B86" s="24"/>
-      <c r="C86" s="29"/>
-      <c r="D86" s="22"/>
+      <c r="A86" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="B86" s="24">
+        <v>26813</v>
+      </c>
+      <c r="C86" s="29" t="s">
+        <v>144</v>
+      </c>
+      <c r="D86" s="22" t="s">
+        <v>299</v>
+      </c>
     </row>
     <row r="87" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A87" s="22"/>
-      <c r="B87" s="24"/>
-      <c r="C87" s="22"/>
-      <c r="D87" s="22"/>
+      <c r="A87" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="B87" s="24">
+        <v>22975</v>
+      </c>
+      <c r="C87" s="22" t="s">
+        <v>154</v>
+      </c>
+      <c r="D87" s="22" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="88" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A88" s="22"/>
-      <c r="B88" s="24"/>
-      <c r="C88" s="22"/>
+      <c r="A88" s="22" t="s">
+        <v>270</v>
+      </c>
+      <c r="B88" s="24" t="s">
+        <v>271</v>
+      </c>
+      <c r="C88" s="22" t="s">
+        <v>272</v>
+      </c>
       <c r="D88" s="22"/>
     </row>
     <row r="89" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A89" s="22"/>
-      <c r="B89" s="24"/>
-      <c r="C89" s="22"/>
+      <c r="A89" s="22" t="s">
+        <v>93</v>
+      </c>
+      <c r="B89" s="24">
+        <v>42247</v>
+      </c>
+      <c r="C89" s="22" t="s">
+        <v>92</v>
+      </c>
       <c r="D89" s="22"/>
     </row>
     <row r="90" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A90" s="22"/>
+      <c r="A90" s="22" t="s">
+        <v>290</v>
+      </c>
       <c r="B90" s="24"/>
-      <c r="C90" s="22"/>
-      <c r="D90" s="22"/>
+      <c r="C90" s="22">
+        <v>1041668</v>
+      </c>
+      <c r="D90" s="22" t="s">
+        <v>288</v>
+      </c>
     </row>
     <row r="91" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A91" s="22"/>
-      <c r="B91" s="24"/>
-      <c r="C91" s="22"/>
-      <c r="D91" s="22"/>
+      <c r="A91" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="B91" s="24">
+        <v>34107</v>
+      </c>
+      <c r="C91" s="22" t="s">
+        <v>145</v>
+      </c>
+      <c r="D91" s="22" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="92" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A92" s="22"/>
-      <c r="B92" s="24"/>
-      <c r="C92" s="22"/>
-      <c r="D92" s="22"/>
+      <c r="A92" s="22" t="s">
+        <v>206</v>
+      </c>
+      <c r="B92" s="24">
+        <v>25000</v>
+      </c>
+      <c r="C92" s="22" t="s">
+        <v>146</v>
+      </c>
+      <c r="D92" s="22" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="93" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A93" s="22"/>
-      <c r="B93" s="24"/>
-      <c r="C93" s="22"/>
-      <c r="D93" s="22"/>
+      <c r="A93" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="B93" s="24">
+        <v>35362</v>
+      </c>
+      <c r="C93" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="D93" s="22" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="94" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A94" s="22"/>
-      <c r="B94" s="24"/>
-      <c r="C94" s="22"/>
-      <c r="D94" s="22"/>
+      <c r="A94" s="22" t="s">
+        <v>165</v>
+      </c>
+      <c r="B94" s="24">
+        <v>17876</v>
+      </c>
+      <c r="C94" s="22" t="s">
+        <v>166</v>
+      </c>
+      <c r="D94" s="22" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row r="95" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A95" s="22"/>
-      <c r="B95" s="24"/>
-      <c r="C95" s="22"/>
-      <c r="D95" s="22"/>
+      <c r="A95" s="22" t="s">
+        <v>200</v>
+      </c>
+      <c r="B95" s="24">
+        <v>26211</v>
+      </c>
+      <c r="C95" s="22" t="s">
+        <v>201</v>
+      </c>
+      <c r="D95" s="22" t="s">
+        <v>202</v>
+      </c>
     </row>
     <row r="96" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A96" s="22"/>
-      <c r="B96" s="24"/>
+      <c r="A96" s="22" t="s">
+        <v>331</v>
+      </c>
+      <c r="B96" s="24">
+        <v>25263</v>
+      </c>
       <c r="C96" s="22"/>
-      <c r="D96" s="22"/>
+      <c r="D96" s="22" t="s">
+        <v>332</v>
+      </c>
     </row>
     <row r="97" spans="1:4" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A97" s="22"/>
-      <c r="B97" s="24"/>
-      <c r="C97" s="22"/>
-      <c r="D97" s="22"/>
+      <c r="A97" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="B97" s="24">
+        <v>28577</v>
+      </c>
+      <c r="C97" s="22" t="s">
+        <v>148</v>
+      </c>
+      <c r="D97" s="22" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="98" spans="1:4" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A98" s="22"/>
-      <c r="B98" s="24"/>
+      <c r="A98" s="22" t="s">
+        <v>302</v>
+      </c>
+      <c r="B98" s="24">
+        <v>24120</v>
+      </c>
       <c r="C98" s="22"/>
-      <c r="D98" s="22"/>
+      <c r="D98" s="22" t="s">
+        <v>303</v>
+      </c>
     </row>
     <row r="99" spans="1:4" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A99" s="22"/>
-      <c r="B99" s="24"/>
-      <c r="C99" s="22"/>
-      <c r="D99" s="22"/>
+      <c r="A99" s="22" t="s">
+        <v>219</v>
+      </c>
+      <c r="B99" s="24">
+        <v>17693</v>
+      </c>
+      <c r="C99" s="22">
+        <v>5002963253</v>
+      </c>
+      <c r="D99" s="22" t="s">
+        <v>220</v>
+      </c>
     </row>
     <row r="100" spans="1:4" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A100" s="22"/>
-      <c r="B100" s="24"/>
-      <c r="C100" s="22"/>
-      <c r="D100" s="22"/>
+      <c r="A100" s="22" t="s">
+        <v>185</v>
+      </c>
+      <c r="B100" s="24">
+        <v>30360</v>
+      </c>
+      <c r="C100" s="22" t="s">
+        <v>186</v>
+      </c>
+      <c r="D100" s="22" t="s">
+        <v>187</v>
+      </c>
     </row>
     <row r="101" spans="1:4" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A101" s="22"/>
-      <c r="B101" s="24"/>
-      <c r="C101" s="22"/>
-      <c r="D101" s="22"/>
+      <c r="A101" s="22" t="s">
+        <v>296</v>
+      </c>
+      <c r="B101" s="24">
+        <v>35868</v>
+      </c>
+      <c r="C101" s="22" t="s">
+        <v>298</v>
+      </c>
+      <c r="D101" s="22" t="s">
+        <v>297</v>
+      </c>
     </row>
     <row r="102" spans="1:4" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A102" s="22"/>
-      <c r="B102" s="24"/>
+      <c r="A102" s="22" t="s">
+        <v>310</v>
+      </c>
+      <c r="B102" s="24">
+        <v>32048</v>
+      </c>
       <c r="C102" s="22"/>
-      <c r="D102" s="22"/>
+      <c r="D102" s="22" t="s">
+        <v>311</v>
+      </c>
     </row>
     <row r="103" spans="1:4" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A103" s="22"/>
-      <c r="B103" s="24"/>
-      <c r="C103" s="22"/>
-      <c r="D103" s="22"/>
+      <c r="A103" s="22" t="s">
+        <v>207</v>
+      </c>
+      <c r="B103" s="24">
+        <v>36066</v>
+      </c>
+      <c r="C103" s="22" t="s">
+        <v>208</v>
+      </c>
+      <c r="D103" s="22" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="104" spans="1:4" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A104" s="22"/>
-      <c r="B104" s="24"/>
-      <c r="C104" s="22"/>
-      <c r="D104" s="22"/>
+      <c r="A104" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="B104" s="24">
+        <v>35022</v>
+      </c>
+      <c r="C104" s="22" t="s">
+        <v>156</v>
+      </c>
+      <c r="D104" s="22" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="105" spans="1:4" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A105" s="22"/>
-      <c r="B105" s="24"/>
+      <c r="A105" s="22" t="s">
+        <v>329</v>
+      </c>
+      <c r="B105" s="24">
+        <v>29513</v>
+      </c>
       <c r="C105" s="22"/>
-      <c r="D105" s="22"/>
+      <c r="D105" s="22" t="s">
+        <v>330</v>
+      </c>
     </row>
     <row r="106" spans="1:4" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A106" s="22"/>
-      <c r="B106" s="24"/>
-      <c r="C106" s="22"/>
-      <c r="D106" s="22"/>
+      <c r="A106" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="B106" s="24">
+        <v>31314</v>
+      </c>
+      <c r="C106" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="D106" s="22" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="107" spans="1:4" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A107" s="22"/>
-      <c r="B107" s="24"/>
-      <c r="C107" s="22"/>
-      <c r="D107" s="22"/>
+      <c r="A107" s="22" t="s">
+        <v>194</v>
+      </c>
+      <c r="B107" s="24">
+        <v>29148</v>
+      </c>
+      <c r="C107" s="22">
+        <v>3394200</v>
+      </c>
+      <c r="D107" s="22" t="s">
+        <v>340</v>
+      </c>
     </row>
     <row r="108" spans="1:4" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A108" s="22"/>
-      <c r="B108" s="24"/>
+      <c r="A108" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="B108" s="24">
+        <v>42803</v>
+      </c>
       <c r="C108" s="22"/>
-      <c r="D108" s="22"/>
+      <c r="D108" s="22" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="109" spans="1:4" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A109" s="22"/>
-      <c r="B109" s="24"/>
+      <c r="A109" s="22" t="s">
+        <v>325</v>
+      </c>
+      <c r="B109" s="24">
+        <v>28909</v>
+      </c>
       <c r="C109" s="22"/>
-      <c r="D109" s="22"/>
+      <c r="D109" s="22" t="s">
+        <v>326</v>
+      </c>
     </row>
     <row r="110" spans="1:4" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A110" s="22"/>
-      <c r="B110" s="24"/>
-      <c r="C110" s="22"/>
-      <c r="D110" s="22"/>
+      <c r="A110" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="B110" s="24">
+        <v>27272</v>
+      </c>
+      <c r="C110" s="22" t="s">
+        <v>150</v>
+      </c>
+      <c r="D110" s="22" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="111" spans="1:4" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A111" s="22"/>
-      <c r="B111" s="24"/>
-      <c r="C111" s="22"/>
+      <c r="A111" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="B111" s="24">
+        <v>41130</v>
+      </c>
+      <c r="C111" s="22" t="s">
+        <v>79</v>
+      </c>
       <c r="D111" s="22"/>
     </row>
     <row r="112" spans="1:4" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A112" s="22"/>
-      <c r="B112" s="24"/>
+      <c r="A112" s="22" t="s">
+        <v>333</v>
+      </c>
+      <c r="B112" s="24">
+        <v>30783</v>
+      </c>
       <c r="C112" s="22"/>
-      <c r="D112" s="22"/>
+      <c r="D112" s="22" t="s">
+        <v>334</v>
+      </c>
     </row>
     <row r="113" spans="1:4" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A113" s="22"/>
-      <c r="B113" s="24"/>
-      <c r="C113" s="22"/>
-      <c r="D113" s="22"/>
+      <c r="A113" s="22" t="s">
+        <v>212</v>
+      </c>
+      <c r="B113" s="24">
+        <v>20628</v>
+      </c>
+      <c r="C113" s="22">
+        <v>225369</v>
+      </c>
+      <c r="D113" s="22" t="s">
+        <v>213</v>
+      </c>
     </row>
     <row r="114" spans="1:4" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A114" s="22"/>
-      <c r="B114" s="24"/>
-      <c r="C114" s="22"/>
-      <c r="D114" s="22"/>
+      <c r="A114" s="22" t="s">
+        <v>223</v>
+      </c>
+      <c r="B114" s="24">
+        <v>23434</v>
+      </c>
+      <c r="C114" s="22" t="s">
+        <v>224</v>
+      </c>
+      <c r="D114" s="22" t="s">
+        <v>225</v>
+      </c>
     </row>
     <row r="115" spans="1:4" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A115" s="22"/>
-      <c r="B115" s="24"/>
-      <c r="C115" s="22"/>
-      <c r="D115" s="22"/>
+      <c r="A115" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="B115" s="24">
+        <v>30411</v>
+      </c>
+      <c r="C115" s="22" t="s">
+        <v>151</v>
+      </c>
+      <c r="D115" s="22" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="116" spans="1:4" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A116" s="22"/>
-      <c r="B116" s="24"/>
-      <c r="C116" s="22"/>
-      <c r="D116" s="22"/>
+      <c r="A116" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="B116" s="24">
+        <v>30306</v>
+      </c>
+      <c r="C116" s="22" t="s">
+        <v>152</v>
+      </c>
+      <c r="D116" s="22" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="117" spans="1:4" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A117" s="22"/>
-      <c r="B117" s="24"/>
-      <c r="C117" s="22"/>
+      <c r="A117" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="B117" s="24">
+        <v>41838</v>
+      </c>
+      <c r="C117" s="22" t="s">
+        <v>92</v>
+      </c>
       <c r="D117" s="22"/>
     </row>
     <row r="118" spans="1:4" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A118" s="22"/>
-      <c r="B118" s="24"/>
-      <c r="C118" s="22"/>
-      <c r="D118" s="22"/>
+      <c r="A118" s="22" t="s">
+        <v>267</v>
+      </c>
+      <c r="B118" s="24">
+        <v>24541</v>
+      </c>
+      <c r="C118" s="22" t="s">
+        <v>269</v>
+      </c>
+      <c r="D118" s="22" t="s">
+        <v>268</v>
+      </c>
     </row>
     <row r="119" spans="1:4" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A119" s="22"/>
+      <c r="A119" s="22" t="s">
+        <v>273</v>
+      </c>
       <c r="B119" s="24"/>
-      <c r="C119" s="22"/>
-      <c r="D119" s="22"/>
+      <c r="C119" s="22">
+        <v>15670</v>
+      </c>
+      <c r="D119" s="22" t="s">
+        <v>274</v>
+      </c>
     </row>
     <row r="120" spans="1:4" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A120" s="22"/>
-      <c r="B120" s="24"/>
-      <c r="C120" s="22"/>
-      <c r="D120" s="22"/>
+      <c r="A120" s="22" t="s">
+        <v>226</v>
+      </c>
+      <c r="B120" s="24">
+        <v>28378</v>
+      </c>
+      <c r="C120" s="22">
+        <v>110067</v>
+      </c>
+      <c r="D120" s="22" t="s">
+        <v>227</v>
+      </c>
     </row>
     <row r="121" spans="1:4" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A121" s="22" t="s">
-        <v>109</v>
+        <v>352</v>
       </c>
       <c r="B121" s="24">
-        <v>44772</v>
+        <v>44783</v>
       </c>
       <c r="C121" s="22"/>
       <c r="D121" s="22"/>
     </row>
     <row r="122" spans="1:4" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A122" s="22" t="s">
-        <v>110</v>
+        <v>353</v>
       </c>
       <c r="B122" s="24">
-        <v>44772</v>
+        <v>223</v>
       </c>
       <c r="C122" s="22"/>
       <c r="D122" s="22"/>
     </row>
     <row r="123" spans="1:4" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A123" s="22" t="s">
-        <v>111</v>
+        <v>354</v>
       </c>
       <c r="B123" s="24">
         <v>44772</v>
@@ -2090,7 +3689,7 @@
     </row>
     <row r="124" spans="1:4" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A124" s="22" t="s">
-        <v>108</v>
+        <v>351</v>
       </c>
       <c r="B124" s="24">
         <v>44772</v>
@@ -2217,7 +3816,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="35.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="43" t="s">
-        <v>67</v>
+        <v>228</v>
       </c>
       <c r="B1" s="44"/>
       <c r="C1" s="44"/>
@@ -2234,27 +3833,27 @@
     <row r="2" spans="1:12" ht="24" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A2" s="4"/>
       <c r="B2" s="5" t="s">
-        <v>68</v>
+        <v>229</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="5" t="s">
-        <v>69</v>
+        <v>230</v>
       </c>
       <c r="E2" s="6"/>
       <c r="F2" s="5" t="s">
-        <v>70</v>
+        <v>231</v>
       </c>
       <c r="G2" s="6"/>
       <c r="H2" s="5" t="s">
-        <v>71</v>
+        <v>232</v>
       </c>
       <c r="I2" s="6"/>
       <c r="J2" s="5" t="s">
-        <v>72</v>
+        <v>233</v>
       </c>
       <c r="K2" s="6"/>
       <c r="L2" s="5" t="s">
-        <v>73</v>
+        <v>234</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -2262,72 +3861,72 @@
         <v>0</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>80</v>
+        <v>241</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>0</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>80</v>
+        <v>241</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>0</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>80</v>
+        <v>241</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>0</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>80</v>
+        <v>241</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>0</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>80</v>
+        <v>241</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>0</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>80</v>
+        <v>241</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
-        <v>81</v>
+        <v>242</v>
       </c>
       <c r="B4" s="8">
         <v>43466</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="D4" s="8">
         <v>43504</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="F4" s="8">
         <v>43525</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="H4" s="8">
         <v>43560</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>51</v>
+        <v>173</v>
       </c>
       <c r="J4" s="8">
         <v>43591</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>49</v>
+        <v>160</v>
       </c>
       <c r="L4" s="8">
         <v>43623</v>
@@ -2335,37 +3934,37 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="B5" s="8">
         <v>43475</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D5" s="8">
         <v>43508</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>39</v>
+        <v>74</v>
       </c>
       <c r="F5" s="8">
         <v>43533</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>50</v>
+        <v>171</v>
       </c>
       <c r="H5" s="8">
         <v>43572</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>97</v>
+        <v>258</v>
       </c>
       <c r="J5" s="8">
         <v>43592</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>63</v>
+        <v>219</v>
       </c>
       <c r="L5" s="8">
         <v>43625</v>
@@ -2373,37 +3972,37 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
-        <v>82</v>
+        <v>243</v>
       </c>
       <c r="B6" s="8">
         <v>43480</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>87</v>
+        <v>248</v>
       </c>
       <c r="D6" s="8">
         <v>43509</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>36</v>
+        <v>68</v>
       </c>
       <c r="F6" s="8">
         <v>43538</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>32</v>
+        <v>58</v>
       </c>
       <c r="H6" s="8">
         <v>43576</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="J6" s="8">
         <v>43603</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>98</v>
+        <v>259</v>
       </c>
       <c r="L6" s="8">
         <v>43627</v>
@@ -2411,37 +4010,37 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
-        <v>62</v>
+        <v>214</v>
       </c>
       <c r="B7" s="8">
         <v>43482</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>88</v>
+        <v>249</v>
       </c>
       <c r="D7" s="8">
         <v>43509</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="F7" s="8">
         <v>43548</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>59</v>
+        <v>205</v>
       </c>
       <c r="H7" s="8">
         <v>43577</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>37</v>
+        <v>72</v>
       </c>
       <c r="J7" s="8">
         <v>43604</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>99</v>
+        <v>260</v>
       </c>
       <c r="L7" s="8">
         <v>43628</v>
@@ -2449,37 +4048,37 @@
     </row>
     <row r="8" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="7" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="B8" s="8">
         <v>43483</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>65</v>
+        <v>223</v>
       </c>
       <c r="D8" s="10">
         <v>43523</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>91</v>
+        <v>252</v>
       </c>
       <c r="F8" s="8">
         <v>43552</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>93</v>
+        <v>254</v>
       </c>
       <c r="H8" s="10">
         <v>43579</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="J8" s="14">
         <v>43614</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>100</v>
+        <v>261</v>
       </c>
       <c r="L8" s="8">
         <v>43638</v>
@@ -2487,7 +4086,7 @@
     </row>
     <row r="9" spans="1:12" ht="24" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A9" s="11" t="s">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="B9" s="12">
         <v>43490</v>
@@ -2495,7 +4094,7 @@
       <c r="C9" s="13"/>
       <c r="D9" s="13"/>
       <c r="E9" s="11" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F9" s="12">
         <v>43554</v>
@@ -2504,7 +4103,7 @@
       <c r="H9" s="13"/>
       <c r="I9" s="6"/>
       <c r="J9" s="5" t="s">
-        <v>78</v>
+        <v>239</v>
       </c>
       <c r="K9" s="13"/>
       <c r="L9" s="13"/>
@@ -2512,29 +4111,29 @@
     <row r="10" spans="1:12" ht="24" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A10" s="6"/>
       <c r="B10" s="5" t="s">
-        <v>74</v>
+        <v>235</v>
       </c>
       <c r="C10" s="6"/>
       <c r="D10" s="5" t="s">
-        <v>75</v>
+        <v>236</v>
       </c>
       <c r="E10" s="6"/>
       <c r="F10" s="5" t="s">
-        <v>76</v>
+        <v>237</v>
       </c>
       <c r="G10" s="6"/>
       <c r="H10" s="5" t="s">
-        <v>77</v>
+        <v>238</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>0</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>80</v>
+        <v>241</v>
       </c>
       <c r="K10" s="6"/>
       <c r="L10" s="5" t="s">
-        <v>79</v>
+        <v>240</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -2542,28 +4141,28 @@
         <v>0</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>80</v>
+        <v>241</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>0</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>80</v>
+        <v>241</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>0</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>80</v>
+        <v>241</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>0</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>80</v>
+        <v>241</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>38</v>
+        <v>73</v>
       </c>
       <c r="J11" s="8">
         <v>43779</v>
@@ -2572,42 +4171,42 @@
         <v>0</v>
       </c>
       <c r="L11" s="3" t="s">
-        <v>80</v>
+        <v>241</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
-        <v>83</v>
+        <v>244</v>
       </c>
       <c r="B12" s="8">
         <v>43650</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>45</v>
+        <v>101</v>
       </c>
       <c r="D12" s="8">
         <v>43684</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="F12" s="8">
         <v>43709</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>94</v>
+        <v>255</v>
       </c>
       <c r="H12" s="8">
         <v>43743</v>
       </c>
       <c r="I12" s="7" t="s">
-        <v>43</v>
+        <v>97</v>
       </c>
       <c r="J12" s="8">
         <v>43788</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>101</v>
+        <v>262</v>
       </c>
       <c r="L12" s="8">
         <v>43804</v>
@@ -2615,37 +4214,37 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
-        <v>54</v>
+        <v>183</v>
       </c>
       <c r="B13" s="8">
         <v>43655</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>89</v>
+        <v>250</v>
       </c>
       <c r="D13" s="8">
         <v>43686</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="F13" s="8">
         <v>43710</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>95</v>
+        <v>256</v>
       </c>
       <c r="H13" s="8">
         <v>43743</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>48</v>
+        <v>107</v>
       </c>
       <c r="J13" s="8">
         <v>43788</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>102</v>
+        <v>263</v>
       </c>
       <c r="L13" s="8">
         <v>43808</v>
@@ -2653,37 +4252,37 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
-        <v>84</v>
+        <v>245</v>
       </c>
       <c r="B14" s="8">
         <v>43662</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>44</v>
+        <v>99</v>
       </c>
       <c r="D14" s="8">
         <v>43687</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="F14" s="8">
         <v>43712</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>64</v>
+        <v>221</v>
       </c>
       <c r="H14" s="8">
         <v>43744</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>58</v>
+        <v>203</v>
       </c>
       <c r="J14" s="8">
         <v>43788</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="L14" s="8">
         <v>43811</v>
@@ -2691,37 +4290,37 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
-        <v>61</v>
+        <v>210</v>
       </c>
       <c r="B15" s="8">
         <v>43663</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>57</v>
+        <v>195</v>
       </c>
       <c r="D15" s="8">
         <v>43689</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="F15" s="8">
         <v>43713</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="H15" s="8">
         <v>43756</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>46</v>
+        <v>103</v>
       </c>
       <c r="J15" s="8">
         <v>43794</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>52</v>
+        <v>175</v>
       </c>
       <c r="L15" s="8">
         <v>43812</v>
@@ -2729,25 +4328,25 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
-        <v>85</v>
+        <v>246</v>
       </c>
       <c r="B16" s="8">
         <v>43664</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>90</v>
+        <v>251</v>
       </c>
       <c r="D16" s="8">
         <v>43708</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>92</v>
+        <v>253</v>
       </c>
       <c r="F16" s="8">
         <v>43716</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>96</v>
+        <v>257</v>
       </c>
       <c r="H16" s="8">
         <v>43758</v>
@@ -2755,7 +4354,7 @@
       <c r="I16" s="13"/>
       <c r="J16" s="13"/>
       <c r="K16" s="7" t="s">
-        <v>103</v>
+        <v>264</v>
       </c>
       <c r="L16" s="8">
         <v>43815</v>
@@ -2763,25 +4362,25 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
-        <v>86</v>
+        <v>247</v>
       </c>
       <c r="B17" s="8">
         <v>43671</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D17" s="8">
         <v>43708</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>66</v>
+        <v>226</v>
       </c>
       <c r="F17" s="8">
         <v>43718</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>47</v>
+        <v>105</v>
       </c>
       <c r="H17" s="14">
         <v>43760</v>
@@ -2789,7 +4388,7 @@
       <c r="I17" s="13"/>
       <c r="J17" s="13"/>
       <c r="K17" s="15" t="s">
-        <v>53</v>
+        <v>181</v>
       </c>
       <c r="L17" s="8">
         <v>43818</v>
@@ -2801,13 +4400,13 @@
       <c r="C18" s="13"/>
       <c r="D18" s="13"/>
       <c r="E18" s="15" t="s">
-        <v>56</v>
+        <v>192</v>
       </c>
       <c r="F18" s="8">
         <v>43727</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="H18" s="14">
         <v>43762</v>
@@ -2815,7 +4414,7 @@
       <c r="I18" s="13"/>
       <c r="J18" s="13"/>
       <c r="K18" s="15" t="s">
-        <v>104</v>
+        <v>265</v>
       </c>
       <c r="L18" s="8">
         <v>43819</v>
@@ -2827,13 +4426,13 @@
       <c r="C19" s="13"/>
       <c r="D19" s="13"/>
       <c r="E19" s="15" t="s">
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="F19" s="8">
         <v>43731</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="H19" s="14">
         <v>43763</v>
@@ -2841,7 +4440,7 @@
       <c r="I19" s="13"/>
       <c r="J19" s="13"/>
       <c r="K19" s="15" t="s">
-        <v>34</v>
+        <v>62</v>
       </c>
       <c r="L19" s="8">
         <v>43820</v>
@@ -2853,13 +4452,13 @@
       <c r="C20" s="13"/>
       <c r="D20" s="13"/>
       <c r="E20" s="15" t="s">
-        <v>42</v>
+        <v>87</v>
       </c>
       <c r="F20" s="8">
         <v>43732</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>55</v>
+        <v>190</v>
       </c>
       <c r="H20" s="14">
         <v>43768</v>
@@ -2867,7 +4466,7 @@
       <c r="I20" s="13"/>
       <c r="J20" s="13"/>
       <c r="K20" s="15" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="L20" s="8">
         <v>43824</v>
@@ -2879,7 +4478,7 @@
       <c r="C21" s="13"/>
       <c r="D21" s="13"/>
       <c r="E21" s="15" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="F21" s="14">
         <v>43733</v>
@@ -2889,7 +4488,7 @@
       <c r="I21" s="13"/>
       <c r="J21" s="13"/>
       <c r="K21" s="15" t="s">
-        <v>105</v>
+        <v>266</v>
       </c>
       <c r="L21" s="8">
         <v>43826</v>
@@ -2901,7 +4500,7 @@
       <c r="C22" s="13"/>
       <c r="D22" s="13"/>
       <c r="E22" s="15" t="s">
-        <v>60</v>
+        <v>207</v>
       </c>
       <c r="F22" s="14">
         <v>43736</v>
@@ -2911,7 +4510,7 @@
       <c r="I22" s="13"/>
       <c r="J22" s="13"/>
       <c r="K22" s="15" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="L22" s="8">
         <v>43830</v>
@@ -2923,7 +4522,7 @@
       <c r="C23" s="13"/>
       <c r="D23" s="13"/>
       <c r="E23" s="15" t="s">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="F23" s="14">
         <v>43737</v>
@@ -2933,7 +4532,7 @@
       <c r="I23" s="13"/>
       <c r="J23" s="13"/>
       <c r="K23" s="15" t="s">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="L23" s="16"/>
     </row>
@@ -2943,7 +4542,7 @@
       <c r="C24" s="13"/>
       <c r="D24" s="13"/>
       <c r="E24" s="15" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="F24" s="14">
         <v>43738</v>
@@ -2953,7 +4552,7 @@
       <c r="I24" s="13"/>
       <c r="J24" s="13"/>
       <c r="K24" s="15" t="s">
-        <v>35</v>
+        <v>64</v>
       </c>
       <c r="L24" s="16"/>
     </row>
@@ -2969,7 +4568,7 @@
       <c r="I25" s="13"/>
       <c r="J25" s="13"/>
       <c r="K25" s="15" t="s">
-        <v>28</v>
+        <v>54</v>
       </c>
       <c r="L25" s="16"/>
     </row>
@@ -2985,7 +4584,7 @@
       <c r="I26" s="13"/>
       <c r="J26" s="13"/>
       <c r="K26" s="15" t="s">
-        <v>31</v>
+        <v>57</v>
       </c>
       <c r="L26" s="16"/>
     </row>
@@ -3001,7 +4600,7 @@
       <c r="I27" s="19"/>
       <c r="J27" s="19"/>
       <c r="K27" s="15" t="s">
-        <v>27</v>
+        <v>53</v>
       </c>
       <c r="L27" s="16"/>
     </row>
@@ -3017,7 +4616,7 @@
       <c r="I28" s="13"/>
       <c r="J28" s="13"/>
       <c r="K28" s="20" t="s">
-        <v>30</v>
+        <v>56</v>
       </c>
       <c r="L28" s="21"/>
     </row>
@@ -3059,7 +4658,7 @@
     <row r="1" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:3" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="46" t="s">
-        <v>106</v>
+        <v>280</v>
       </c>
       <c r="C2" s="47"/>
     </row>
@@ -3068,12 +4667,12 @@
         <v>0</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>76</v>
+        <v>237</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B4" s="7" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="C4" s="8">
         <v>43709</v>
@@ -3081,7 +4680,7 @@
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B5" s="7" t="s">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="C5" s="8">
         <v>43710</v>
@@ -3089,7 +4688,7 @@
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B6" s="7" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="C6" s="8">
         <v>43712</v>
@@ -3097,7 +4696,7 @@
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B7" s="7" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C7" s="8">
         <v>43713</v>
@@ -3105,7 +4704,7 @@
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
-        <v>92</v>
+        <v>253</v>
       </c>
       <c r="C8" s="8">
         <v>43716</v>
@@ -3113,7 +4712,7 @@
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B9" s="7" t="s">
-        <v>66</v>
+        <v>226</v>
       </c>
       <c r="C9" s="8">
         <v>43718</v>
@@ -3121,7 +4720,7 @@
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B10" s="7" t="s">
-        <v>56</v>
+        <v>192</v>
       </c>
       <c r="C10" s="8">
         <v>43727</v>
@@ -3129,7 +4728,7 @@
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B11" s="7" t="s">
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="C11" s="8">
         <v>43731</v>
@@ -3137,7 +4736,7 @@
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B12" s="7" t="s">
-        <v>42</v>
+        <v>87</v>
       </c>
       <c r="C12" s="8">
         <v>43732</v>
@@ -3145,7 +4744,7 @@
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B13" s="7" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="C13" s="8">
         <v>43733</v>
@@ -3153,7 +4752,7 @@
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B14" s="7" t="s">
-        <v>60</v>
+        <v>207</v>
       </c>
       <c r="C14" s="8">
         <v>43736</v>
@@ -3161,7 +4760,7 @@
     </row>
     <row r="15" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B15" s="7" t="s">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="C15" s="8">
         <v>43737</v>
@@ -3169,7 +4768,7 @@
     </row>
     <row r="16" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B16" s="33" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="C16" s="34">
         <v>43738</v>
